--- a/resultados/pretratamiento-tablas/pretrat-italia-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas/pretrat-italia-elo-dificil.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="740">
   <si>
     <t>Pretrat</t>
   </si>
@@ -82,6 +82,2169 @@
   </si>
   <si>
     <t>promoccup_ant_5</t>
+  </si>
+  <si>
+    <t>54.964 (140)</t>
+  </si>
+  <si>
+    <t>52.114 (140)</t>
+  </si>
+  <si>
+    <t>49.186 (140)</t>
+  </si>
+  <si>
+    <t>47.086 (140)</t>
+  </si>
+  <si>
+    <t>47.414 (140)</t>
+  </si>
+  <si>
+    <t>9.114 (140)</t>
+  </si>
+  <si>
+    <t>10.257 (140)</t>
+  </si>
+  <si>
+    <t>10.75 (140)</t>
+  </si>
+  <si>
+    <t>11.443 (140)</t>
+  </si>
+  <si>
+    <t>10.986 (140)</t>
+  </si>
+  <si>
+    <t>0.612 (140)</t>
+  </si>
+  <si>
+    <t>0.62 (140)</t>
+  </si>
+  <si>
+    <t>0.619 (140)</t>
+  </si>
+  <si>
+    <t>0.634 (140)</t>
+  </si>
+  <si>
+    <t>0.645 (140)</t>
+  </si>
+  <si>
+    <t>47.618 (136)</t>
+  </si>
+  <si>
+    <t>44.949 (136)</t>
+  </si>
+  <si>
+    <t>41.757 (136)</t>
+  </si>
+  <si>
+    <t>41.919 (136)</t>
+  </si>
+  <si>
+    <t>39.721 (136)</t>
+  </si>
+  <si>
+    <t>11.625 (136)</t>
+  </si>
+  <si>
+    <t>12.978 (136)</t>
+  </si>
+  <si>
+    <t>13.596 (136)</t>
+  </si>
+  <si>
+    <t>13.14 (136)</t>
+  </si>
+  <si>
+    <t>13.772 (136)</t>
+  </si>
+  <si>
+    <t>0.566 (136)</t>
+  </si>
+  <si>
+    <t>0.57 (136)</t>
+  </si>
+  <si>
+    <t>0.579 (136)</t>
+  </si>
+  <si>
+    <t>0.595 (136)</t>
+  </si>
+  <si>
+    <t>0.605 (136)</t>
+  </si>
+  <si>
+    <t>43.364 (22)</t>
+  </si>
+  <si>
+    <t>41.727 (22)</t>
+  </si>
+  <si>
+    <t>40.591 (22)</t>
+  </si>
+  <si>
+    <t>38.091 (22)</t>
+  </si>
+  <si>
+    <t>32.364 (22)</t>
+  </si>
+  <si>
+    <t>13.364 (22)</t>
+  </si>
+  <si>
+    <t>13.909 (22)</t>
+  </si>
+  <si>
+    <t>13.318 (22)</t>
+  </si>
+  <si>
+    <t>13.955 (22)</t>
+  </si>
+  <si>
+    <t>16.727 (22)</t>
+  </si>
+  <si>
+    <t>0.562 (22)</t>
+  </si>
+  <si>
+    <t>0.577 (22)</t>
+  </si>
+  <si>
+    <t>0.595 (22)</t>
+  </si>
+  <si>
+    <t>0.594 (22)</t>
+  </si>
+  <si>
+    <t>0.609 (22)</t>
+  </si>
+  <si>
+    <t>56.121 (107)</t>
+  </si>
+  <si>
+    <t>53.178 (107)</t>
+  </si>
+  <si>
+    <t>51.327 (107)</t>
+  </si>
+  <si>
+    <t>49.514 (107)</t>
+  </si>
+  <si>
+    <t>49.813 (107)</t>
+  </si>
+  <si>
+    <t>8.85 (107)</t>
+  </si>
+  <si>
+    <t>10.047 (107)</t>
+  </si>
+  <si>
+    <t>10.065 (107)</t>
+  </si>
+  <si>
+    <t>10.701 (107)</t>
+  </si>
+  <si>
+    <t>10.15 (107)</t>
+  </si>
+  <si>
+    <t>0.618 (107)</t>
+  </si>
+  <si>
+    <t>0.621 (107)</t>
+  </si>
+  <si>
+    <t>0.639 (107)</t>
+  </si>
+  <si>
+    <t>0.648 (107)</t>
+  </si>
+  <si>
+    <t>48.854 (157)</t>
+  </si>
+  <si>
+    <t>46.0 (157)</t>
+  </si>
+  <si>
+    <t>42.261 (157)</t>
+  </si>
+  <si>
+    <t>41.866 (157)</t>
+  </si>
+  <si>
+    <t>40.127 (157)</t>
+  </si>
+  <si>
+    <t>11.083 (157)</t>
+  </si>
+  <si>
+    <t>12.452 (157)</t>
+  </si>
+  <si>
+    <t>13.338 (157)</t>
+  </si>
+  <si>
+    <t>13.083 (157)</t>
+  </si>
+  <si>
+    <t>13.586 (157)</t>
+  </si>
+  <si>
+    <t>0.572 (157)</t>
+  </si>
+  <si>
+    <t>0.582 (157)</t>
+  </si>
+  <si>
+    <t>0.587 (157)</t>
+  </si>
+  <si>
+    <t>0.601 (157)</t>
+  </si>
+  <si>
+    <t>0.612 (157)</t>
+  </si>
+  <si>
+    <t>42.647 (34)</t>
+  </si>
+  <si>
+    <t>41.618 (34)</t>
+  </si>
+  <si>
+    <t>39.147 (34)</t>
+  </si>
+  <si>
+    <t>37.059 (34)</t>
+  </si>
+  <si>
+    <t>33.0 (34)</t>
+  </si>
+  <si>
+    <t>13.647 (34)</t>
+  </si>
+  <si>
+    <t>14.029 (34)</t>
+  </si>
+  <si>
+    <t>14.0 (34)</t>
+  </si>
+  <si>
+    <t>14.618 (34)</t>
+  </si>
+  <si>
+    <t>16.471 (34)</t>
+  </si>
+  <si>
+    <t>0.559 (34)</t>
+  </si>
+  <si>
+    <t>0.563 (34)</t>
+  </si>
+  <si>
+    <t>0.586 (34)</t>
+  </si>
+  <si>
+    <t>0.59 (34)</t>
+  </si>
+  <si>
+    <t>0.604 (34)</t>
+  </si>
+  <si>
+    <t>57.747 (79)</t>
+  </si>
+  <si>
+    <t>55.253 (79)</t>
+  </si>
+  <si>
+    <t>52.43 (79)</t>
+  </si>
+  <si>
+    <t>51.873 (79)</t>
+  </si>
+  <si>
+    <t>51.481 (79)</t>
+  </si>
+  <si>
+    <t>8.278 (79)</t>
+  </si>
+  <si>
+    <t>9.316 (79)</t>
+  </si>
+  <si>
+    <t>9.722 (79)</t>
+  </si>
+  <si>
+    <t>9.949 (79)</t>
+  </si>
+  <si>
+    <t>9.608 (79)</t>
+  </si>
+  <si>
+    <t>0.612 (79)</t>
+  </si>
+  <si>
+    <t>0.618 (79)</t>
+  </si>
+  <si>
+    <t>0.62 (79)</t>
+  </si>
+  <si>
+    <t>0.641 (79)</t>
+  </si>
+  <si>
+    <t>0.654 (79)</t>
+  </si>
+  <si>
+    <t>49.665 (170)</t>
+  </si>
+  <si>
+    <t>46.453 (170)</t>
+  </si>
+  <si>
+    <t>43.753 (170)</t>
+  </si>
+  <si>
+    <t>42.412 (170)</t>
+  </si>
+  <si>
+    <t>41.594 (170)</t>
+  </si>
+  <si>
+    <t>10.753 (170)</t>
+  </si>
+  <si>
+    <t>12.2 (170)</t>
+  </si>
+  <si>
+    <t>12.8 (170)</t>
+  </si>
+  <si>
+    <t>12.894 (170)</t>
+  </si>
+  <si>
+    <t>12.988 (170)</t>
+  </si>
+  <si>
+    <t>0.579 (170)</t>
+  </si>
+  <si>
+    <t>0.586 (170)</t>
+  </si>
+  <si>
+    <t>0.587 (170)</t>
+  </si>
+  <si>
+    <t>0.601 (170)</t>
+  </si>
+  <si>
+    <t>0.612 (170)</t>
+  </si>
+  <si>
+    <t>43.277 (47)</t>
+  </si>
+  <si>
+    <t>42.383 (47)</t>
+  </si>
+  <si>
+    <t>38.404 (47)</t>
+  </si>
+  <si>
+    <t>37.936 (47)</t>
+  </si>
+  <si>
+    <t>33.191 (47)</t>
+  </si>
+  <si>
+    <t>13.66 (47)</t>
+  </si>
+  <si>
+    <t>14.128 (47)</t>
+  </si>
+  <si>
+    <t>14.34 (47)</t>
+  </si>
+  <si>
+    <t>14.383 (47)</t>
+  </si>
+  <si>
+    <t>16.426 (47)</t>
+  </si>
+  <si>
+    <t>0.578 (47)</t>
+  </si>
+  <si>
+    <t>0.582 (47)</t>
+  </si>
+  <si>
+    <t>0.607 (47)</t>
+  </si>
+  <si>
+    <t>0.612 (47)</t>
+  </si>
+  <si>
+    <t>0.618 (47)</t>
+  </si>
+  <si>
+    <t>43.0 (2)</t>
+  </si>
+  <si>
+    <t>36.5 (2)</t>
+  </si>
+  <si>
+    <t>20.0 (2)</t>
+  </si>
+  <si>
+    <t>27.0 (2)</t>
+  </si>
+  <si>
+    <t>13.5 (2)</t>
+  </si>
+  <si>
+    <t>16.5 (2)</t>
+  </si>
+  <si>
+    <t>14.5 (2)</t>
+  </si>
+  <si>
+    <t>21.0 (2)</t>
+  </si>
+  <si>
+    <t>0.524 (2)</t>
+  </si>
+  <si>
+    <t>0.54 (2)</t>
+  </si>
+  <si>
+    <t>0.6 (2)</t>
+  </si>
+  <si>
+    <t>0.613 (2)</t>
+  </si>
+  <si>
+    <t>0.574 (2)</t>
+  </si>
+  <si>
+    <t>60.667 (54)</t>
+  </si>
+  <si>
+    <t>59.0 (54)</t>
+  </si>
+  <si>
+    <t>57.111 (54)</t>
+  </si>
+  <si>
+    <t>55.926 (54)</t>
+  </si>
+  <si>
+    <t>53.741 (54)</t>
+  </si>
+  <si>
+    <t>7.463 (54)</t>
+  </si>
+  <si>
+    <t>7.815 (54)</t>
+  </si>
+  <si>
+    <t>8.056 (54)</t>
+  </si>
+  <si>
+    <t>8.463 (54)</t>
+  </si>
+  <si>
+    <t>8.611 (54)</t>
+  </si>
+  <si>
+    <t>0.615 (54)</t>
+  </si>
+  <si>
+    <t>0.63 (54)</t>
+  </si>
+  <si>
+    <t>0.625 (54)</t>
+  </si>
+  <si>
+    <t>0.648 (54)</t>
+  </si>
+  <si>
+    <t>0.667 (54)</t>
+  </si>
+  <si>
+    <t>49.702 (178)</t>
+  </si>
+  <si>
+    <t>46.208 (178)</t>
+  </si>
+  <si>
+    <t>43.365 (178)</t>
+  </si>
+  <si>
+    <t>42.972 (178)</t>
+  </si>
+  <si>
+    <t>42.191 (178)</t>
+  </si>
+  <si>
+    <t>10.809 (178)</t>
+  </si>
+  <si>
+    <t>12.36 (178)</t>
+  </si>
+  <si>
+    <t>12.978 (178)</t>
+  </si>
+  <si>
+    <t>12.792 (178)</t>
+  </si>
+  <si>
+    <t>12.899 (178)</t>
+  </si>
+  <si>
+    <t>0.581 (178)</t>
+  </si>
+  <si>
+    <t>0.585 (178)</t>
+  </si>
+  <si>
+    <t>0.588 (178)</t>
+  </si>
+  <si>
+    <t>0.608 (178)</t>
+  </si>
+  <si>
+    <t>0.616 (178)</t>
+  </si>
+  <si>
+    <t>44.984 (61)</t>
+  </si>
+  <si>
+    <t>44.049 (61)</t>
+  </si>
+  <si>
+    <t>40.197 (61)</t>
+  </si>
+  <si>
+    <t>37.18 (61)</t>
+  </si>
+  <si>
+    <t>35.131 (61)</t>
+  </si>
+  <si>
+    <t>12.689 (61)</t>
+  </si>
+  <si>
+    <t>13.492 (61)</t>
+  </si>
+  <si>
+    <t>13.59 (61)</t>
+  </si>
+  <si>
+    <t>14.607 (61)</t>
+  </si>
+  <si>
+    <t>15.426 (61)</t>
+  </si>
+  <si>
+    <t>0.585 (61)</t>
+  </si>
+  <si>
+    <t>0.593 (61)</t>
+  </si>
+  <si>
+    <t>0.614 (61)</t>
+  </si>
+  <si>
+    <t>0.604 (61)</t>
+  </si>
+  <si>
+    <t>0.618 (61)</t>
+  </si>
+  <si>
+    <t>51.6 (5)</t>
+  </si>
+  <si>
+    <t>45.8 (5)</t>
+  </si>
+  <si>
+    <t>40.6 (5)</t>
+  </si>
+  <si>
+    <t>38.8 (5)</t>
+  </si>
+  <si>
+    <t>39.4 (5)</t>
+  </si>
+  <si>
+    <t>10.0 (5)</t>
+  </si>
+  <si>
+    <t>12.4 (5)</t>
+  </si>
+  <si>
+    <t>14.6 (5)</t>
+  </si>
+  <si>
+    <t>14.2 (5)</t>
+  </si>
+  <si>
+    <t>15.4 (5)</t>
+  </si>
+  <si>
+    <t>0.528 (5)</t>
+  </si>
+  <si>
+    <t>0.52 (5)</t>
+  </si>
+  <si>
+    <t>0.542 (5)</t>
+  </si>
+  <si>
+    <t>0.558 (5)</t>
+  </si>
+  <si>
+    <t>0.535 (5)</t>
+  </si>
+  <si>
+    <t>54.087 (104)</t>
+  </si>
+  <si>
+    <t>50.096 (104)</t>
+  </si>
+  <si>
+    <t>47.192 (104)</t>
+  </si>
+  <si>
+    <t>44.942 (104)</t>
+  </si>
+  <si>
+    <t>45.885 (104)</t>
+  </si>
+  <si>
+    <t>9.346 (104)</t>
+  </si>
+  <si>
+    <t>10.99 (104)</t>
+  </si>
+  <si>
+    <t>11.385 (104)</t>
+  </si>
+  <si>
+    <t>12.096 (104)</t>
+  </si>
+  <si>
+    <t>11.337 (104)</t>
+  </si>
+  <si>
+    <t>0.614 (104)</t>
+  </si>
+  <si>
+    <t>0.625 (104)</t>
+  </si>
+  <si>
+    <t>0.618 (104)</t>
+  </si>
+  <si>
+    <t>0.635 (104)</t>
+  </si>
+  <si>
+    <t>0.646 (104)</t>
+  </si>
+  <si>
+    <t>50.72 (150)</t>
+  </si>
+  <si>
+    <t>48.593 (150)</t>
+  </si>
+  <si>
+    <t>45.413 (150)</t>
+  </si>
+  <si>
+    <t>45.753 (150)</t>
+  </si>
+  <si>
+    <t>43.673 (150)</t>
+  </si>
+  <si>
+    <t>10.547 (150)</t>
+  </si>
+  <si>
+    <t>11.68 (150)</t>
+  </si>
+  <si>
+    <t>12.313 (150)</t>
+  </si>
+  <si>
+    <t>11.84 (150)</t>
+  </si>
+  <si>
+    <t>12.453 (150)</t>
+  </si>
+  <si>
+    <t>0.579 (150)</t>
+  </si>
+  <si>
+    <t>0.583 (150)</t>
+  </si>
+  <si>
+    <t>0.596 (150)</t>
+  </si>
+  <si>
+    <t>0.606 (150)</t>
+  </si>
+  <si>
+    <t>0.616 (150)</t>
+  </si>
+  <si>
+    <t>42.81 (42)</t>
+  </si>
+  <si>
+    <t>41.452 (42)</t>
+  </si>
+  <si>
+    <t>39.5 (42)</t>
+  </si>
+  <si>
+    <t>36.143 (42)</t>
+  </si>
+  <si>
+    <t>32.5 (42)</t>
+  </si>
+  <si>
+    <t>13.738 (42)</t>
+  </si>
+  <si>
+    <t>13.929 (42)</t>
+  </si>
+  <si>
+    <t>14.048 (42)</t>
+  </si>
+  <si>
+    <t>15.143 (42)</t>
+  </si>
+  <si>
+    <t>16.69 (42)</t>
+  </si>
+  <si>
+    <t>0.551 (42)</t>
+  </si>
+  <si>
+    <t>0.55 (42)</t>
+  </si>
+  <si>
+    <t>0.563 (42)</t>
+  </si>
+  <si>
+    <t>0.588 (42)</t>
+  </si>
+  <si>
+    <t>0.598 (42)</t>
+  </si>
+  <si>
+    <t>47.0 (2)</t>
+  </si>
+  <si>
+    <t>43.5 (2)</t>
+  </si>
+  <si>
+    <t>39.5 (2)</t>
+  </si>
+  <si>
+    <t>38.0 (2)</t>
+  </si>
+  <si>
+    <t>32.0 (2)</t>
+  </si>
+  <si>
+    <t>10.0 (2)</t>
+  </si>
+  <si>
+    <t>13.0 (2)</t>
+  </si>
+  <si>
+    <t>15.5 (2)</t>
+  </si>
+  <si>
+    <t>0.591 (2)</t>
+  </si>
+  <si>
+    <t>0.69 (2)</t>
+  </si>
+  <si>
+    <t>0.637 (2)</t>
+  </si>
+  <si>
+    <t>0.59 (2)</t>
+  </si>
+  <si>
+    <t>0.633 (2)</t>
+  </si>
+  <si>
+    <t>56.043 (70)</t>
+  </si>
+  <si>
+    <t>51.286 (70)</t>
+  </si>
+  <si>
+    <t>48.914 (70)</t>
+  </si>
+  <si>
+    <t>46.714 (70)</t>
+  </si>
+  <si>
+    <t>48.1 (70)</t>
+  </si>
+  <si>
+    <t>8.743 (70)</t>
+  </si>
+  <si>
+    <t>10.743 (70)</t>
+  </si>
+  <si>
+    <t>10.886 (70)</t>
+  </si>
+  <si>
+    <t>11.7 (70)</t>
+  </si>
+  <si>
+    <t>10.6 (70)</t>
+  </si>
+  <si>
+    <t>0.627 (70)</t>
+  </si>
+  <si>
+    <t>0.626 (70)</t>
+  </si>
+  <si>
+    <t>0.618 (70)</t>
+  </si>
+  <si>
+    <t>0.635 (70)</t>
+  </si>
+  <si>
+    <t>0.643 (70)</t>
+  </si>
+  <si>
+    <t>51.242 (161)</t>
+  </si>
+  <si>
+    <t>49.081 (161)</t>
+  </si>
+  <si>
+    <t>46.373 (161)</t>
+  </si>
+  <si>
+    <t>46.416 (161)</t>
+  </si>
+  <si>
+    <t>44.652 (161)</t>
+  </si>
+  <si>
+    <t>10.292 (161)</t>
+  </si>
+  <si>
+    <t>11.391 (161)</t>
+  </si>
+  <si>
+    <t>11.851 (161)</t>
+  </si>
+  <si>
+    <t>11.46 (161)</t>
+  </si>
+  <si>
+    <t>12.012 (161)</t>
+  </si>
+  <si>
+    <t>0.58 (161)</t>
+  </si>
+  <si>
+    <t>0.595 (161)</t>
+  </si>
+  <si>
+    <t>0.599 (161)</t>
+  </si>
+  <si>
+    <t>0.613 (161)</t>
+  </si>
+  <si>
+    <t>0.623 (161)</t>
+  </si>
+  <si>
+    <t>43.935 (62)</t>
+  </si>
+  <si>
+    <t>42.0 (62)</t>
+  </si>
+  <si>
+    <t>37.823 (62)</t>
+  </si>
+  <si>
+    <t>35.226 (62)</t>
+  </si>
+  <si>
+    <t>32.532 (62)</t>
+  </si>
+  <si>
+    <t>13.274 (62)</t>
+  </si>
+  <si>
+    <t>13.855 (62)</t>
+  </si>
+  <si>
+    <t>14.774 (62)</t>
+  </si>
+  <si>
+    <t>15.484 (62)</t>
+  </si>
+  <si>
+    <t>16.5 (62)</t>
+  </si>
+  <si>
+    <t>0.566 (62)</t>
+  </si>
+  <si>
+    <t>0.558 (62)</t>
+  </si>
+  <si>
+    <t>0.585 (62)</t>
+  </si>
+  <si>
+    <t>0.598 (62)</t>
+  </si>
+  <si>
+    <t>0.615 (62)</t>
+  </si>
+  <si>
+    <t>45.6 (5)</t>
+  </si>
+  <si>
+    <t>46.2 (5)</t>
+  </si>
+  <si>
+    <t>44.6 (5)</t>
+  </si>
+  <si>
+    <t>40.8 (5)</t>
+  </si>
+  <si>
+    <t>35.8 (5)</t>
+  </si>
+  <si>
+    <t>11.8 (5)</t>
+  </si>
+  <si>
+    <t>12.2 (5)</t>
+  </si>
+  <si>
+    <t>14.4 (5)</t>
+  </si>
+  <si>
+    <t>16.0 (5)</t>
+  </si>
+  <si>
+    <t>0.506 (5)</t>
+  </si>
+  <si>
+    <t>0.541 (5)</t>
+  </si>
+  <si>
+    <t>0.53 (5)</t>
+  </si>
+  <si>
+    <t>0.518 (5)</t>
+  </si>
+  <si>
+    <t>0.523 (5)</t>
+  </si>
+  <si>
+    <t>58.062 (48)</t>
+  </si>
+  <si>
+    <t>53.021 (48)</t>
+  </si>
+  <si>
+    <t>49.792 (48)</t>
+  </si>
+  <si>
+    <t>48.375 (48)</t>
+  </si>
+  <si>
+    <t>50.062 (48)</t>
+  </si>
+  <si>
+    <t>8.0 (48)</t>
+  </si>
+  <si>
+    <t>10.208 (48)</t>
+  </si>
+  <si>
+    <t>10.708 (48)</t>
+  </si>
+  <si>
+    <t>11.312 (48)</t>
+  </si>
+  <si>
+    <t>10.021 (48)</t>
+  </si>
+  <si>
+    <t>0.622 (48)</t>
+  </si>
+  <si>
+    <t>0.624 (48)</t>
+  </si>
+  <si>
+    <t>0.627 (48)</t>
+  </si>
+  <si>
+    <t>0.637 (48)</t>
+  </si>
+  <si>
+    <t>0.645 (48)</t>
+  </si>
+  <si>
+    <t>51.629 (151)</t>
+  </si>
+  <si>
+    <t>49.013 (151)</t>
+  </si>
+  <si>
+    <t>46.788 (151)</t>
+  </si>
+  <si>
+    <t>46.424 (151)</t>
+  </si>
+  <si>
+    <t>44.51 (151)</t>
+  </si>
+  <si>
+    <t>10.099 (151)</t>
+  </si>
+  <si>
+    <t>11.344 (151)</t>
+  </si>
+  <si>
+    <t>11.709 (151)</t>
+  </si>
+  <si>
+    <t>11.483 (151)</t>
+  </si>
+  <si>
+    <t>11.907 (151)</t>
+  </si>
+  <si>
+    <t>0.583 (151)</t>
+  </si>
+  <si>
+    <t>0.595 (151)</t>
+  </si>
+  <si>
+    <t>0.591 (151)</t>
+  </si>
+  <si>
+    <t>0.608 (151)</t>
+  </si>
+  <si>
+    <t>0.621 (151)</t>
+  </si>
+  <si>
+    <t>46.261 (88)</t>
+  </si>
+  <si>
+    <t>44.455 (88)</t>
+  </si>
+  <si>
+    <t>40.375 (88)</t>
+  </si>
+  <si>
+    <t>38.648 (88)</t>
+  </si>
+  <si>
+    <t>36.875 (88)</t>
+  </si>
+  <si>
+    <t>12.42 (88)</t>
+  </si>
+  <si>
+    <t>13.068 (88)</t>
+  </si>
+  <si>
+    <t>13.807 (88)</t>
+  </si>
+  <si>
+    <t>14.17 (88)</t>
+  </si>
+  <si>
+    <t>14.989 (88)</t>
+  </si>
+  <si>
+    <t>0.587 (88)</t>
+  </si>
+  <si>
+    <t>0.585 (88)</t>
+  </si>
+  <si>
+    <t>0.607 (88)</t>
+  </si>
+  <si>
+    <t>0.618 (88)</t>
+  </si>
+  <si>
+    <t>0.629 (88)</t>
+  </si>
+  <si>
+    <t>42.818 (11)</t>
+  </si>
+  <si>
+    <t>42.636 (11)</t>
+  </si>
+  <si>
+    <t>40.909 (11)</t>
+  </si>
+  <si>
+    <t>36.182 (11)</t>
+  </si>
+  <si>
+    <t>34.818 (11)</t>
+  </si>
+  <si>
+    <t>13.545 (11)</t>
+  </si>
+  <si>
+    <t>14.0 (11)</t>
+  </si>
+  <si>
+    <t>13.636 (11)</t>
+  </si>
+  <si>
+    <t>15.636 (11)</t>
+  </si>
+  <si>
+    <t>16.455 (11)</t>
+  </si>
+  <si>
+    <t>0.489 (11)</t>
+  </si>
+  <si>
+    <t>0.513 (11)</t>
+  </si>
+  <si>
+    <t>0.533 (11)</t>
+  </si>
+  <si>
+    <t>0.549 (11)</t>
+  </si>
+  <si>
+    <t>0.544 (11)</t>
+  </si>
+  <si>
+    <t>60.88 (25)</t>
+  </si>
+  <si>
+    <t>56.04 (25)</t>
+  </si>
+  <si>
+    <t>56.36 (25)</t>
+  </si>
+  <si>
+    <t>52.88 (25)</t>
+  </si>
+  <si>
+    <t>53.16 (25)</t>
+  </si>
+  <si>
+    <t>7.08 (25)</t>
+  </si>
+  <si>
+    <t>8.96 (25)</t>
+  </si>
+  <si>
+    <t>8.36 (25)</t>
+  </si>
+  <si>
+    <t>9.56 (25)</t>
+  </si>
+  <si>
+    <t>8.4 (25)</t>
+  </si>
+  <si>
+    <t>0.622 (25)</t>
+  </si>
+  <si>
+    <t>0.634 (25)</t>
+  </si>
+  <si>
+    <t>0.636 (25)</t>
+  </si>
+  <si>
+    <t>0.642 (25)</t>
+  </si>
+  <si>
+    <t>0.66 (25)</t>
+  </si>
+  <si>
+    <t>52.361 (147)</t>
+  </si>
+  <si>
+    <t>49.143 (147)</t>
+  </si>
+  <si>
+    <t>46.095 (147)</t>
+  </si>
+  <si>
+    <t>46.449 (147)</t>
+  </si>
+  <si>
+    <t>44.918 (147)</t>
+  </si>
+  <si>
+    <t>9.939 (147)</t>
+  </si>
+  <si>
+    <t>11.388 (147)</t>
+  </si>
+  <si>
+    <t>12.034 (147)</t>
+  </si>
+  <si>
+    <t>11.626 (147)</t>
+  </si>
+  <si>
+    <t>11.946 (147)</t>
+  </si>
+  <si>
+    <t>0.587 (147)</t>
+  </si>
+  <si>
+    <t>0.596 (147)</t>
+  </si>
+  <si>
+    <t>0.591 (147)</t>
+  </si>
+  <si>
+    <t>0.612 (147)</t>
+  </si>
+  <si>
+    <t>0.622 (147)</t>
+  </si>
+  <si>
+    <t>46.972 (106)</t>
+  </si>
+  <si>
+    <t>45.311 (106)</t>
+  </si>
+  <si>
+    <t>42.557 (106)</t>
+  </si>
+  <si>
+    <t>40.132 (106)</t>
+  </si>
+  <si>
+    <t>38.792 (106)</t>
+  </si>
+  <si>
+    <t>11.962 (106)</t>
+  </si>
+  <si>
+    <t>12.726 (106)</t>
+  </si>
+  <si>
+    <t>12.906 (106)</t>
+  </si>
+  <si>
+    <t>13.604 (106)</t>
+  </si>
+  <si>
+    <t>14.132 (106)</t>
+  </si>
+  <si>
+    <t>0.588 (106)</t>
+  </si>
+  <si>
+    <t>0.589 (106)</t>
+  </si>
+  <si>
+    <t>0.607 (106)</t>
+  </si>
+  <si>
+    <t>0.615 (106)</t>
+  </si>
+  <si>
+    <t>0.628 (106)</t>
+  </si>
+  <si>
+    <t>46.895 (19)</t>
+  </si>
+  <si>
+    <t>44.947 (19)</t>
+  </si>
+  <si>
+    <t>37.526 (19)</t>
+  </si>
+  <si>
+    <t>35.842 (19)</t>
+  </si>
+  <si>
+    <t>34.947 (19)</t>
+  </si>
+  <si>
+    <t>12.053 (19)</t>
+  </si>
+  <si>
+    <t>13.053 (19)</t>
+  </si>
+  <si>
+    <t>15.263 (19)</t>
+  </si>
+  <si>
+    <t>15.526 (19)</t>
+  </si>
+  <si>
+    <t>15.789 (19)</t>
+  </si>
+  <si>
+    <t>0.558 (19)</t>
+  </si>
+  <si>
+    <t>0.568 (19)</t>
+  </si>
+  <si>
+    <t>0.593 (19)</t>
+  </si>
+  <si>
+    <t>0.59 (19)</t>
+  </si>
+  <si>
+    <t>36.0 (1)</t>
+  </si>
+  <si>
+    <t>45.0 (1)</t>
+  </si>
+  <si>
+    <t>49.0 (1)</t>
+  </si>
+  <si>
+    <t>46.0 (1)</t>
+  </si>
+  <si>
+    <t>44.0 (1)</t>
+  </si>
+  <si>
+    <t>16.0 (1)</t>
+  </si>
+  <si>
+    <t>12.0 (1)</t>
+  </si>
+  <si>
+    <t>11.0 (1)</t>
+  </si>
+  <si>
+    <t>15.0 (1)</t>
+  </si>
+  <si>
+    <t>0.242 (1)</t>
+  </si>
+  <si>
+    <t>0.258 (1)</t>
+  </si>
+  <si>
+    <t>0.251 (1)</t>
+  </si>
+  <si>
+    <t>0.335 (1)</t>
+  </si>
+  <si>
+    <t>0.305 (1)</t>
+  </si>
+  <si>
+    <t>53.184 (76)</t>
+  </si>
+  <si>
+    <t>50.105 (76)</t>
+  </si>
+  <si>
+    <t>46.132 (76)</t>
+  </si>
+  <si>
+    <t>44.987 (76)</t>
+  </si>
+  <si>
+    <t>45.816 (76)</t>
+  </si>
+  <si>
+    <t>9.592 (76)</t>
+  </si>
+  <si>
+    <t>10.895 (76)</t>
+  </si>
+  <si>
+    <t>11.776 (76)</t>
+  </si>
+  <si>
+    <t>12.237 (76)</t>
+  </si>
+  <si>
+    <t>11.408 (76)</t>
+  </si>
+  <si>
+    <t>0.606 (76)</t>
+  </si>
+  <si>
+    <t>0.612 (76)</t>
+  </si>
+  <si>
+    <t>0.61 (76)</t>
+  </si>
+  <si>
+    <t>0.627 (76)</t>
+  </si>
+  <si>
+    <t>0.638 (76)</t>
+  </si>
+  <si>
+    <t>52.588 (148)</t>
+  </si>
+  <si>
+    <t>49.858 (148)</t>
+  </si>
+  <si>
+    <t>47.284 (148)</t>
+  </si>
+  <si>
+    <t>46.412 (148)</t>
+  </si>
+  <si>
+    <t>43.764 (148)</t>
+  </si>
+  <si>
+    <t>9.912 (148)</t>
+  </si>
+  <si>
+    <t>11.189 (148)</t>
+  </si>
+  <si>
+    <t>11.541 (148)</t>
+  </si>
+  <si>
+    <t>11.507 (148)</t>
+  </si>
+  <si>
+    <t>12.358 (148)</t>
+  </si>
+  <si>
+    <t>0.597 (148)</t>
+  </si>
+  <si>
+    <t>0.607 (148)</t>
+  </si>
+  <si>
+    <t>0.608 (148)</t>
+  </si>
+  <si>
+    <t>0.624 (148)</t>
+  </si>
+  <si>
+    <t>0.632 (148)</t>
+  </si>
+  <si>
+    <t>44.557 (70)</t>
+  </si>
+  <si>
+    <t>42.143 (70)</t>
+  </si>
+  <si>
+    <t>39.857 (70)</t>
+  </si>
+  <si>
+    <t>38.443 (70)</t>
+  </si>
+  <si>
+    <t>37.786 (70)</t>
+  </si>
+  <si>
+    <t>12.957 (70)</t>
+  </si>
+  <si>
+    <t>13.971 (70)</t>
+  </si>
+  <si>
+    <t>14.143 (70)</t>
+  </si>
+  <si>
+    <t>14.357 (70)</t>
+  </si>
+  <si>
+    <t>14.629 (70)</t>
+  </si>
+  <si>
+    <t>0.549 (70)</t>
+  </si>
+  <si>
+    <t>0.55 (70)</t>
+  </si>
+  <si>
+    <t>0.571 (70)</t>
+  </si>
+  <si>
+    <t>0.585 (70)</t>
+  </si>
+  <si>
+    <t>0.6 (70)</t>
+  </si>
+  <si>
+    <t>45.25 (4)</t>
+  </si>
+  <si>
+    <t>47.5 (4)</t>
+  </si>
+  <si>
+    <t>41.0 (4)</t>
+  </si>
+  <si>
+    <t>38.0 (4)</t>
+  </si>
+  <si>
+    <t>37.0 (4)</t>
+  </si>
+  <si>
+    <t>12.0 (4)</t>
+  </si>
+  <si>
+    <t>11.25 (4)</t>
+  </si>
+  <si>
+    <t>13.5 (4)</t>
+  </si>
+  <si>
+    <t>14.5 (4)</t>
+  </si>
+  <si>
+    <t>14.75 (4)</t>
+  </si>
+  <si>
+    <t>0.526 (4)</t>
+  </si>
+  <si>
+    <t>0.547 (4)</t>
+  </si>
+  <si>
+    <t>0.531 (4)</t>
+  </si>
+  <si>
+    <t>0.464 (4)</t>
+  </si>
+  <si>
+    <t>0.494 (4)</t>
+  </si>
+  <si>
+    <t>54.152 (46)</t>
+  </si>
+  <si>
+    <t>50.109 (46)</t>
+  </si>
+  <si>
+    <t>48.174 (46)</t>
+  </si>
+  <si>
+    <t>47.478 (46)</t>
+  </si>
+  <si>
+    <t>48.935 (46)</t>
+  </si>
+  <si>
+    <t>9.435 (46)</t>
+  </si>
+  <si>
+    <t>11.109 (46)</t>
+  </si>
+  <si>
+    <t>11.196 (46)</t>
+  </si>
+  <si>
+    <t>11.783 (46)</t>
+  </si>
+  <si>
+    <t>10.5 (46)</t>
+  </si>
+  <si>
+    <t>0.626 (46)</t>
+  </si>
+  <si>
+    <t>0.614 (46)</t>
+  </si>
+  <si>
+    <t>0.612 (46)</t>
+  </si>
+  <si>
+    <t>0.63 (46)</t>
+  </si>
+  <si>
+    <t>0.638 (46)</t>
+  </si>
+  <si>
+    <t>53.79 (143)</t>
+  </si>
+  <si>
+    <t>51.231 (143)</t>
+  </si>
+  <si>
+    <t>48.182 (143)</t>
+  </si>
+  <si>
+    <t>47.217 (143)</t>
+  </si>
+  <si>
+    <t>44.51 (143)</t>
+  </si>
+  <si>
+    <t>9.329 (143)</t>
+  </si>
+  <si>
+    <t>10.559 (143)</t>
+  </si>
+  <si>
+    <t>11.161 (143)</t>
+  </si>
+  <si>
+    <t>11.042 (143)</t>
+  </si>
+  <si>
+    <t>11.902 (143)</t>
+  </si>
+  <si>
+    <t>0.593 (143)</t>
+  </si>
+  <si>
+    <t>0.612 (143)</t>
+  </si>
+  <si>
+    <t>0.605 (143)</t>
+  </si>
+  <si>
+    <t>0.623 (143)</t>
+  </si>
+  <si>
+    <t>0.629 (143)</t>
+  </si>
+  <si>
+    <t>45.568 (95)</t>
+  </si>
+  <si>
+    <t>43.2 (95)</t>
+  </si>
+  <si>
+    <t>39.958 (95)</t>
+  </si>
+  <si>
+    <t>38.368 (95)</t>
+  </si>
+  <si>
+    <t>38.242 (95)</t>
+  </si>
+  <si>
+    <t>12.6 (95)</t>
+  </si>
+  <si>
+    <t>13.674 (95)</t>
+  </si>
+  <si>
+    <t>14.105 (95)</t>
+  </si>
+  <si>
+    <t>14.505 (95)</t>
+  </si>
+  <si>
+    <t>14.516 (95)</t>
+  </si>
+  <si>
+    <t>0.568 (95)</t>
+  </si>
+  <si>
+    <t>0.566 (95)</t>
+  </si>
+  <si>
+    <t>0.593 (95)</t>
+  </si>
+  <si>
+    <t>0.606 (95)</t>
+  </si>
+  <si>
+    <t>0.621 (95)</t>
+  </si>
+  <si>
+    <t>43.786 (14)</t>
+  </si>
+  <si>
+    <t>42.286 (14)</t>
+  </si>
+  <si>
+    <t>39.714 (14)</t>
+  </si>
+  <si>
+    <t>39.286 (14)</t>
+  </si>
+  <si>
+    <t>35.929 (14)</t>
+  </si>
+  <si>
+    <t>13.286 (14)</t>
+  </si>
+  <si>
+    <t>13.357 (14)</t>
+  </si>
+  <si>
+    <t>14.0 (14)</t>
+  </si>
+  <si>
+    <t>14.071 (14)</t>
+  </si>
+  <si>
+    <t>15.357 (14)</t>
+  </si>
+  <si>
+    <t>0.524 (14)</t>
+  </si>
+  <si>
+    <t>0.525 (14)</t>
+  </si>
+  <si>
+    <t>0.535 (14)</t>
+  </si>
+  <si>
+    <t>0.516 (14)</t>
+  </si>
+  <si>
+    <t>0.555 (14)</t>
+  </si>
+  <si>
+    <t>57.107 (28)</t>
+  </si>
+  <si>
+    <t>53.321 (28)</t>
+  </si>
+  <si>
+    <t>48.857 (28)</t>
+  </si>
+  <si>
+    <t>47.929 (28)</t>
+  </si>
+  <si>
+    <t>51.143 (28)</t>
+  </si>
+  <si>
+    <t>8.429 (28)</t>
+  </si>
+  <si>
+    <t>9.929 (28)</t>
+  </si>
+  <si>
+    <t>11.071 (28)</t>
+  </si>
+  <si>
+    <t>12.036 (28)</t>
+  </si>
+  <si>
+    <t>10.179 (28)</t>
+  </si>
+  <si>
+    <t>0.614 (28)</t>
+  </si>
+  <si>
+    <t>0.617 (28)</t>
+  </si>
+  <si>
+    <t>0.633 (28)</t>
+  </si>
+  <si>
+    <t>0.632 (28)</t>
+  </si>
+  <si>
+    <t>0.645 (28)</t>
+  </si>
+  <si>
+    <t>53.592 (125)</t>
+  </si>
+  <si>
+    <t>50.376 (125)</t>
+  </si>
+  <si>
+    <t>47.92 (125)</t>
+  </si>
+  <si>
+    <t>47.576 (125)</t>
+  </si>
+  <si>
+    <t>45.08 (125)</t>
+  </si>
+  <si>
+    <t>9.4 (125)</t>
+  </si>
+  <si>
+    <t>10.888 (125)</t>
+  </si>
+  <si>
+    <t>11.368 (125)</t>
+  </si>
+  <si>
+    <t>11.0 (125)</t>
+  </si>
+  <si>
+    <t>11.48 (125)</t>
+  </si>
+  <si>
+    <t>0.597 (125)</t>
+  </si>
+  <si>
+    <t>0.608 (125)</t>
+  </si>
+  <si>
+    <t>0.611 (125)</t>
+  </si>
+  <si>
+    <t>0.619 (125)</t>
+  </si>
+  <si>
+    <t>48.568 (111)</t>
+  </si>
+  <si>
+    <t>46.333 (111)</t>
+  </si>
+  <si>
+    <t>43.613 (111)</t>
+  </si>
+  <si>
+    <t>41.865 (111)</t>
+  </si>
+  <si>
+    <t>39.946 (111)</t>
+  </si>
+  <si>
+    <t>11.351 (111)</t>
+  </si>
+  <si>
+    <t>12.387 (111)</t>
+  </si>
+  <si>
+    <t>12.703 (111)</t>
+  </si>
+  <si>
+    <t>13.063 (111)</t>
+  </si>
+  <si>
+    <t>13.874 (111)</t>
+  </si>
+  <si>
+    <t>0.586 (111)</t>
+  </si>
+  <si>
+    <t>0.587 (111)</t>
+  </si>
+  <si>
+    <t>0.602 (111)</t>
+  </si>
+  <si>
+    <t>0.63 (111)</t>
+  </si>
+  <si>
+    <t>0.639 (111)</t>
+  </si>
+  <si>
+    <t>42.121 (33)</t>
+  </si>
+  <si>
+    <t>40.697 (33)</t>
+  </si>
+  <si>
+    <t>36.727 (33)</t>
+  </si>
+  <si>
+    <t>34.152 (33)</t>
+  </si>
+  <si>
+    <t>35.909 (33)</t>
+  </si>
+  <si>
+    <t>14.152 (33)</t>
+  </si>
+  <si>
+    <t>14.667 (33)</t>
+  </si>
+  <si>
+    <t>15.0 (33)</t>
+  </si>
+  <si>
+    <t>16.03 (33)</t>
+  </si>
+  <si>
+    <t>15.606 (33)</t>
+  </si>
+  <si>
+    <t>0.532 (33)</t>
+  </si>
+  <si>
+    <t>0.544 (33)</t>
+  </si>
+  <si>
+    <t>0.569 (33)</t>
+  </si>
+  <si>
+    <t>0.547 (33)</t>
+  </si>
+  <si>
+    <t>0.573 (33)</t>
+  </si>
+  <si>
+    <t>51.0 (1)</t>
+  </si>
+  <si>
+    <t>47.0 (1)</t>
+  </si>
+  <si>
+    <t>68.0 (1)</t>
+  </si>
+  <si>
+    <t>66.0 (1)</t>
+  </si>
+  <si>
+    <t>13.0 (1)</t>
+  </si>
+  <si>
+    <t>9.0 (1)</t>
+  </si>
+  <si>
+    <t>5.0 (1)</t>
+  </si>
+  <si>
+    <t>4.0 (1)</t>
+  </si>
+  <si>
+    <t>0.454 (1)</t>
+  </si>
+  <si>
+    <t>0.483 (1)</t>
+  </si>
+  <si>
+    <t>0.58 (1)</t>
+  </si>
+  <si>
+    <t>0.664 (1)</t>
+  </si>
+  <si>
+    <t>0.665 (1)</t>
+  </si>
+  <si>
+    <t>64.0 (11)</t>
+  </si>
+  <si>
+    <t>59.545 (11)</t>
+  </si>
+  <si>
+    <t>56.909 (11)</t>
+  </si>
+  <si>
+    <t>55.636 (11)</t>
+  </si>
+  <si>
+    <t>58.818 (11)</t>
+  </si>
+  <si>
+    <t>5.818 (11)</t>
+  </si>
+  <si>
+    <t>6.455 (11)</t>
+  </si>
+  <si>
+    <t>7.727 (11)</t>
+  </si>
+  <si>
+    <t>9.273 (11)</t>
+  </si>
+  <si>
+    <t>7.364 (11)</t>
+  </si>
+  <si>
+    <t>0.608 (11)</t>
+  </si>
+  <si>
+    <t>0.626 (11)</t>
+  </si>
+  <si>
+    <t>0.635 (11)</t>
+  </si>
+  <si>
+    <t>0.679 (11)</t>
+  </si>
+  <si>
+    <t>53.009 (108)</t>
+  </si>
+  <si>
+    <t>48.222 (108)</t>
+  </si>
+  <si>
+    <t>46.222 (108)</t>
+  </si>
+  <si>
+    <t>46.343 (108)</t>
+  </si>
+  <si>
+    <t>44.074 (108)</t>
+  </si>
+  <si>
+    <t>9.796 (108)</t>
+  </si>
+  <si>
+    <t>11.981 (108)</t>
+  </si>
+  <si>
+    <t>12.176 (108)</t>
+  </si>
+  <si>
+    <t>11.722 (108)</t>
+  </si>
+  <si>
+    <t>12.056 (108)</t>
+  </si>
+  <si>
+    <t>0.598 (108)</t>
+  </si>
+  <si>
+    <t>0.607 (108)</t>
+  </si>
+  <si>
+    <t>0.604 (108)</t>
+  </si>
+  <si>
+    <t>0.618 (108)</t>
+  </si>
+  <si>
+    <t>0.619 (108)</t>
+  </si>
+  <si>
+    <t>50.766 (124)</t>
+  </si>
+  <si>
+    <t>49.935 (124)</t>
+  </si>
+  <si>
+    <t>46.815 (124)</t>
+  </si>
+  <si>
+    <t>44.839 (124)</t>
+  </si>
+  <si>
+    <t>43.185 (124)</t>
+  </si>
+  <si>
+    <t>10.476 (124)</t>
+  </si>
+  <si>
+    <t>10.903 (124)</t>
+  </si>
+  <si>
+    <t>11.444 (124)</t>
+  </si>
+  <si>
+    <t>11.903 (124)</t>
+  </si>
+  <si>
+    <t>12.589 (124)</t>
+  </si>
+  <si>
+    <t>0.593 (124)</t>
+  </si>
+  <si>
+    <t>0.599 (124)</t>
+  </si>
+  <si>
+    <t>0.602 (124)</t>
+  </si>
+  <si>
+    <t>0.623 (124)</t>
+  </si>
+  <si>
+    <t>0.637 (124)</t>
+  </si>
+  <si>
+    <t>43.784 (51)</t>
+  </si>
+  <si>
+    <t>40.902 (51)</t>
+  </si>
+  <si>
+    <t>36.784 (51)</t>
+  </si>
+  <si>
+    <t>34.902 (51)</t>
+  </si>
+  <si>
+    <t>35.706 (51)</t>
+  </si>
+  <si>
+    <t>13.137 (51)</t>
+  </si>
+  <si>
+    <t>14.569 (51)</t>
+  </si>
+  <si>
+    <t>15.118 (51)</t>
+  </si>
+  <si>
+    <t>15.667 (51)</t>
+  </si>
+  <si>
+    <t>15.275 (51)</t>
+  </si>
+  <si>
+    <t>0.557 (51)</t>
+  </si>
+  <si>
+    <t>0.584 (51)</t>
+  </si>
+  <si>
+    <t>0.583 (51)</t>
+  </si>
+  <si>
+    <t>0.602 (51)</t>
+  </si>
+  <si>
+    <t>42.0 (4)</t>
+  </si>
+  <si>
+    <t>46.5 (4)</t>
+  </si>
+  <si>
+    <t>39.75 (4)</t>
+  </si>
+  <si>
+    <t>43.5 (4)</t>
+  </si>
+  <si>
+    <t>42.25 (4)</t>
+  </si>
+  <si>
+    <t>15.0 (4)</t>
+  </si>
+  <si>
+    <t>11.75 (4)</t>
+  </si>
+  <si>
+    <t>14.25 (4)</t>
+  </si>
+  <si>
+    <t>13.25 (4)</t>
+  </si>
+  <si>
+    <t>14.0 (4)</t>
+  </si>
+  <si>
+    <t>0.45 (4)</t>
+  </si>
+  <si>
+    <t>0.461 (4)</t>
+  </si>
+  <si>
+    <t>0.502 (4)</t>
+  </si>
+  <si>
+    <t>0.512 (4)</t>
   </si>
 </sst>
 </file>
@@ -472,20 +2635,20 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>58.415</v>
-      </c>
-      <c r="C2">
-        <v>51.782</v>
-      </c>
-      <c r="D2">
-        <v>48.375</v>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F2">
-        <v>8.352</v>
+        <v>10.335</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -495,112 +2658,112 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>58.393</v>
-      </c>
-      <c r="C3">
-        <v>51.657</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F3">
-        <v>9.984999999999999</v>
+        <v>7.705</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>58.942</v>
-      </c>
-      <c r="C4">
-        <v>49.806</v>
-      </c>
-      <c r="D4">
-        <v>51.786</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F4">
-        <v>9.852</v>
+        <v>5.635</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>56.816</v>
-      </c>
-      <c r="C5">
-        <v>51.379</v>
-      </c>
-      <c r="D5">
-        <v>53.167</v>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F5">
-        <v>3.177</v>
+        <v>3.331</v>
       </c>
       <c r="G5">
-        <v>0.044</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>51.186</v>
-      </c>
-      <c r="D6">
-        <v>44.727</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F6">
-        <v>7.683</v>
+        <v>8.502000000000001</v>
       </c>
       <c r="G6">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.748</v>
-      </c>
-      <c r="C7">
-        <v>9.882</v>
-      </c>
-      <c r="D7">
-        <v>11.25</v>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F7">
-        <v>7.951</v>
+        <v>9.69</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -610,89 +2773,89 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.571</v>
-      </c>
-      <c r="C8">
-        <v>9.98</v>
-      </c>
-      <c r="D8">
-        <v>12.333</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F8">
-        <v>10.056</v>
+        <v>6.799</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.202</v>
-      </c>
-      <c r="C9">
-        <v>10.724</v>
-      </c>
-      <c r="D9">
-        <v>8.929</v>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F9">
-        <v>11.59</v>
+        <v>5.973</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.01</v>
-      </c>
-      <c r="C10">
-        <v>9.747</v>
-      </c>
-      <c r="D10">
-        <v>8.083</v>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F10">
-        <v>2.759</v>
+        <v>2.52</v>
       </c>
       <c r="G10">
-        <v>0.066</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.119</v>
-      </c>
-      <c r="C11">
-        <v>9.57</v>
-      </c>
-      <c r="D11">
-        <v>12.455</v>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F11">
-        <v>9.065</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -702,20 +2865,20 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.615</v>
-      </c>
-      <c r="C12">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.553</v>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F12">
-        <v>4.603</v>
+        <v>4.59</v>
       </c>
       <c r="G12">
         <v>0.011</v>
@@ -725,20 +2888,20 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.626</v>
-      </c>
-      <c r="C13">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.573</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F13">
-        <v>5.848</v>
+        <v>5.783</v>
       </c>
       <c r="G13">
         <v>0.003</v>
@@ -748,43 +2911,43 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.626</v>
-      </c>
-      <c r="C14">
-        <v>0.571</v>
-      </c>
-      <c r="D14">
-        <v>0.593</v>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F14">
-        <v>3.441</v>
+        <v>3.457</v>
       </c>
       <c r="G14">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.642</v>
-      </c>
-      <c r="C15">
-        <v>0.587</v>
-      </c>
-      <c r="D15">
-        <v>0.579</v>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F15">
-        <v>3.768</v>
+        <v>3.747</v>
       </c>
       <c r="G15">
         <v>0.025</v>
@@ -794,20 +2957,20 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.654</v>
-      </c>
-      <c r="C16">
-        <v>0.594</v>
-      </c>
-      <c r="D16">
-        <v>0.594</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
       </c>
       <c r="E16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F16">
-        <v>3.922</v>
+        <v>3.918</v>
       </c>
       <c r="G16">
         <v>0.021</v>
@@ -856,153 +3019,153 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>57.098</v>
-      </c>
-      <c r="C2">
-        <v>57.216</v>
-      </c>
-      <c r="D2">
-        <v>50.831</v>
-      </c>
-      <c r="E2">
-        <v>46.083</v>
+      <c r="B2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" t="s">
+        <v>581</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>5.017</v>
+        <v>6.959</v>
       </c>
       <c r="H2">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>56.528</v>
-      </c>
-      <c r="C3">
-        <v>57.664</v>
-      </c>
-      <c r="D3">
-        <v>49.304</v>
-      </c>
-      <c r="E3">
-        <v>46.455</v>
+      <c r="B3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" t="s">
+        <v>582</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>6.16</v>
+        <v>4.93</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>56.714</v>
-      </c>
-      <c r="C4">
-        <v>56.661</v>
-      </c>
-      <c r="D4">
-        <v>50.048</v>
-      </c>
-      <c r="E4">
-        <v>47.2</v>
+      <c r="B4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E4" t="s">
+        <v>583</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>3.553</v>
+        <v>4.113</v>
       </c>
       <c r="H4">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>55.111</v>
-      </c>
-      <c r="C5">
-        <v>56.717</v>
-      </c>
-      <c r="D5">
-        <v>50.614</v>
-      </c>
-      <c r="E5">
-        <v>44.545</v>
+      <c r="B5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" t="s">
+        <v>584</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>3.593</v>
+        <v>4.512</v>
       </c>
       <c r="H5">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>58.029</v>
-      </c>
-      <c r="C6">
-        <v>56.51</v>
-      </c>
-      <c r="D6">
-        <v>49.879</v>
-      </c>
-      <c r="E6">
-        <v>44.778</v>
+      <c r="B6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E6" t="s">
+        <v>585</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>4.555</v>
+        <v>3.989</v>
       </c>
       <c r="H6">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.268000000000001</v>
-      </c>
-      <c r="C7">
-        <v>7.936</v>
-      </c>
-      <c r="D7">
-        <v>10.437</v>
-      </c>
-      <c r="E7">
-        <v>12.333</v>
+      <c r="B7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7" t="s">
+        <v>586</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>6.619</v>
+        <v>8.179</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1012,153 +3175,153 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.361000000000001</v>
-      </c>
-      <c r="C8">
-        <v>7.788</v>
-      </c>
-      <c r="D8">
-        <v>10.913</v>
-      </c>
-      <c r="E8">
-        <v>11.273</v>
+      <c r="B8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E8" t="s">
+        <v>587</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>6.212</v>
+        <v>4.439</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>8.114000000000001</v>
-      </c>
-      <c r="C9">
-        <v>8.092000000000001</v>
-      </c>
-      <c r="D9">
-        <v>10.435</v>
-      </c>
-      <c r="E9">
-        <v>11.2</v>
+      <c r="B9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" t="s">
+        <v>558</v>
+      </c>
+      <c r="D9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E9" t="s">
+        <v>588</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>3.388</v>
+        <v>3.999</v>
       </c>
       <c r="H9">
-        <v>0.019</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.222</v>
-      </c>
-      <c r="C10">
-        <v>7.566</v>
-      </c>
-      <c r="D10">
-        <v>10.175</v>
-      </c>
-      <c r="E10">
-        <v>12.182</v>
+      <c r="B10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C10" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E10" t="s">
+        <v>589</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>4.924</v>
+        <v>5.015</v>
       </c>
       <c r="H10">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.2</v>
-      </c>
-      <c r="C11">
-        <v>7.448</v>
-      </c>
-      <c r="D11">
-        <v>10.379</v>
-      </c>
-      <c r="E11">
-        <v>12.222</v>
+      <c r="B11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E11" t="s">
+        <v>590</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>6.467</v>
+        <v>4.699</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.631</v>
-      </c>
-      <c r="C12">
-        <v>0.594</v>
-      </c>
-      <c r="D12">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.513</v>
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D12" t="s">
+        <v>576</v>
+      </c>
+      <c r="E12" t="s">
+        <v>591</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>3.113</v>
+        <v>3.146</v>
       </c>
       <c r="H12">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.619</v>
-      </c>
-      <c r="C13">
-        <v>0.617</v>
-      </c>
-      <c r="D13">
-        <v>0.556</v>
-      </c>
-      <c r="E13">
-        <v>0.506</v>
+      <c r="B13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" t="s">
+        <v>577</v>
+      </c>
+      <c r="E13" t="s">
+        <v>592</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>4.433</v>
+        <v>4.367</v>
       </c>
       <c r="H13">
         <v>0.005</v>
@@ -1168,78 +3331,78 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.616</v>
-      </c>
-      <c r="C14">
-        <v>0.607</v>
-      </c>
-      <c r="D14">
-        <v>0.59</v>
-      </c>
-      <c r="E14">
-        <v>0.509</v>
+      <c r="B14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" t="s">
+        <v>578</v>
+      </c>
+      <c r="E14" t="s">
+        <v>593</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>1.519</v>
+        <v>1.506</v>
       </c>
       <c r="H14">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.634</v>
-      </c>
-      <c r="C15">
-        <v>0.626</v>
-      </c>
-      <c r="D15">
-        <v>0.601</v>
-      </c>
-      <c r="E15">
-        <v>0.489</v>
+      <c r="B15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C15" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" t="s">
+        <v>579</v>
+      </c>
+      <c r="E15" t="s">
+        <v>594</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>3.193</v>
+        <v>3.491</v>
       </c>
       <c r="H15">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.642</v>
-      </c>
-      <c r="C16">
-        <v>0.631</v>
-      </c>
-      <c r="D16">
-        <v>0.619</v>
-      </c>
-      <c r="E16">
-        <v>0.517</v>
+      <c r="B16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" t="s">
+        <v>565</v>
+      </c>
+      <c r="D16" t="s">
+        <v>580</v>
+      </c>
+      <c r="E16" t="s">
+        <v>595</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>1.743</v>
+        <v>1.714</v>
       </c>
       <c r="H16">
-        <v>0.16</v>
+        <v>0.164</v>
       </c>
     </row>
   </sheetData>
@@ -1288,171 +3451,171 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>59.192</v>
-      </c>
-      <c r="C2">
-        <v>57.055</v>
-      </c>
-      <c r="D2">
-        <v>53.42</v>
-      </c>
-      <c r="E2">
-        <v>46</v>
-      </c>
-      <c r="F2">
-        <v>46</v>
+      <c r="B2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F2" t="s">
+        <v>465</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H2">
-        <v>4.097</v>
+        <v>5.273</v>
       </c>
       <c r="I2">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>60.5</v>
-      </c>
-      <c r="C3">
-        <v>56.515</v>
-      </c>
-      <c r="D3">
-        <v>52.855</v>
-      </c>
-      <c r="E3">
-        <v>45.833</v>
-      </c>
-      <c r="F3">
-        <v>51</v>
+      <c r="B3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" t="s">
+        <v>655</v>
       </c>
       <c r="G3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H3">
-        <v>3.809</v>
+        <v>3.007</v>
       </c>
       <c r="I3">
-        <v>0.005</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>56.052</v>
-      </c>
-      <c r="D4">
-        <v>52.772</v>
-      </c>
-      <c r="E4">
-        <v>46.95</v>
-      </c>
-      <c r="F4">
-        <v>47</v>
+      <c r="B4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F4" t="s">
+        <v>656</v>
       </c>
       <c r="G4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H4">
-        <v>2.455</v>
+        <v>2.562</v>
       </c>
       <c r="I4">
-        <v>0.047</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>55.545</v>
-      </c>
-      <c r="C5">
-        <v>55.906</v>
-      </c>
-      <c r="D5">
-        <v>53.708</v>
-      </c>
-      <c r="E5">
-        <v>44.579</v>
-      </c>
-      <c r="F5">
-        <v>68</v>
+      <c r="B5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F5" t="s">
+        <v>657</v>
       </c>
       <c r="G5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H5">
-        <v>2.483</v>
+        <v>4.005</v>
       </c>
       <c r="I5">
-        <v>0.045</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>61.524</v>
-      </c>
-      <c r="C6">
-        <v>54.451</v>
-      </c>
-      <c r="D6">
-        <v>54.062</v>
-      </c>
-      <c r="E6">
-        <v>46.25</v>
-      </c>
-      <c r="F6">
-        <v>66</v>
+      <c r="B6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" t="s">
+        <v>644</v>
+      </c>
+      <c r="F6" t="s">
+        <v>658</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H6">
-        <v>2.939</v>
+        <v>3.519</v>
       </c>
       <c r="I6">
-        <v>0.022</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.615</v>
-      </c>
-      <c r="C7">
-        <v>7.991</v>
-      </c>
-      <c r="D7">
-        <v>9.352</v>
-      </c>
-      <c r="E7">
-        <v>12.6</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
+      <c r="B7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F7" t="s">
+        <v>659</v>
       </c>
       <c r="G7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H7">
-        <v>5.783</v>
+        <v>6.303</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1462,261 +3625,261 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>6.909</v>
-      </c>
-      <c r="C8">
-        <v>8.231999999999999</v>
-      </c>
-      <c r="D8">
-        <v>9.481999999999999</v>
-      </c>
-      <c r="E8">
-        <v>12.292</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E8" t="s">
+        <v>646</v>
+      </c>
+      <c r="F8" t="s">
+        <v>660</v>
       </c>
       <c r="G8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H8">
-        <v>4.067</v>
+        <v>2.808</v>
       </c>
       <c r="I8">
-        <v>0.003</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.1</v>
-      </c>
-      <c r="C9">
-        <v>8.458</v>
-      </c>
-      <c r="D9">
-        <v>9.342000000000001</v>
-      </c>
-      <c r="E9">
-        <v>11.1</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D9" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F9" t="s">
+        <v>469</v>
       </c>
       <c r="G9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H9">
-        <v>1.708</v>
+        <v>2.049</v>
       </c>
       <c r="I9">
-        <v>0.149</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.590999999999999</v>
-      </c>
-      <c r="C10">
-        <v>7.979</v>
-      </c>
-      <c r="D10">
-        <v>8.763999999999999</v>
-      </c>
-      <c r="E10">
-        <v>12.368</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D10" t="s">
+        <v>633</v>
+      </c>
+      <c r="E10" t="s">
+        <v>648</v>
+      </c>
+      <c r="F10" t="s">
+        <v>661</v>
       </c>
       <c r="G10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H10">
-        <v>3.03</v>
+        <v>3.992</v>
       </c>
       <c r="I10">
-        <v>0.019</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.571</v>
-      </c>
-      <c r="C11">
-        <v>7.923</v>
-      </c>
-      <c r="D11">
-        <v>8.831</v>
-      </c>
-      <c r="E11">
-        <v>12.1</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" t="s">
+        <v>620</v>
+      </c>
+      <c r="D11" t="s">
+        <v>634</v>
+      </c>
+      <c r="E11" t="s">
+        <v>649</v>
+      </c>
+      <c r="F11" t="s">
+        <v>662</v>
       </c>
       <c r="G11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H11">
-        <v>3.774</v>
+        <v>4.258</v>
       </c>
       <c r="I11">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.616</v>
-      </c>
-      <c r="C12">
-        <v>0.599</v>
-      </c>
-      <c r="D12">
-        <v>0.586</v>
-      </c>
-      <c r="E12">
-        <v>0.515</v>
-      </c>
-      <c r="F12">
-        <v>0.454</v>
+      <c r="B12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C12" t="s">
+        <v>621</v>
+      </c>
+      <c r="D12" t="s">
+        <v>635</v>
+      </c>
+      <c r="E12" t="s">
+        <v>650</v>
+      </c>
+      <c r="F12" t="s">
+        <v>663</v>
       </c>
       <c r="G12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H12">
-        <v>2.204</v>
+        <v>2.13</v>
       </c>
       <c r="I12">
-        <v>0.06900000000000001</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.623</v>
-      </c>
-      <c r="C13">
-        <v>0.612</v>
-      </c>
-      <c r="D13">
-        <v>0.585</v>
-      </c>
-      <c r="E13">
-        <v>0.526</v>
-      </c>
-      <c r="F13">
-        <v>0.483</v>
+      <c r="B13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D13" t="s">
+        <v>636</v>
+      </c>
+      <c r="E13" t="s">
+        <v>651</v>
+      </c>
+      <c r="F13" t="s">
+        <v>664</v>
       </c>
       <c r="G13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H13">
-        <v>2.223</v>
+        <v>2.201</v>
       </c>
       <c r="I13">
-        <v>0.067</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.646</v>
-      </c>
-      <c r="C14">
-        <v>0.597</v>
-      </c>
-      <c r="D14">
-        <v>0.604</v>
-      </c>
-      <c r="E14">
-        <v>0.549</v>
-      </c>
-      <c r="F14">
-        <v>0.58</v>
+      <c r="B14" t="s">
+        <v>608</v>
+      </c>
+      <c r="C14" t="s">
+        <v>621</v>
+      </c>
+      <c r="D14" t="s">
+        <v>637</v>
+      </c>
+      <c r="E14" t="s">
+        <v>652</v>
+      </c>
+      <c r="F14" t="s">
+        <v>665</v>
       </c>
       <c r="G14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H14">
-        <v>1.085</v>
+        <v>0.987</v>
       </c>
       <c r="I14">
-        <v>0.365</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.638</v>
-      </c>
-      <c r="C15">
-        <v>0.611</v>
-      </c>
-      <c r="D15">
-        <v>0.639</v>
-      </c>
-      <c r="E15">
-        <v>0.498</v>
-      </c>
-      <c r="F15">
-        <v>0.664</v>
+      <c r="B15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C15" t="s">
+        <v>623</v>
+      </c>
+      <c r="D15" t="s">
+        <v>638</v>
+      </c>
+      <c r="E15" t="s">
+        <v>653</v>
+      </c>
+      <c r="F15" t="s">
+        <v>666</v>
       </c>
       <c r="G15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H15">
-        <v>3.652</v>
+        <v>3.044</v>
       </c>
       <c r="I15">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.651</v>
-      </c>
-      <c r="C16">
-        <v>0.617</v>
-      </c>
-      <c r="D16">
-        <v>0.65</v>
-      </c>
-      <c r="E16">
-        <v>0.54</v>
-      </c>
-      <c r="F16">
-        <v>0.665</v>
+      <c r="B16" t="s">
+        <v>610</v>
+      </c>
+      <c r="C16" t="s">
+        <v>624</v>
+      </c>
+      <c r="D16" t="s">
+        <v>639</v>
+      </c>
+      <c r="E16" t="s">
+        <v>654</v>
+      </c>
+      <c r="F16" t="s">
+        <v>667</v>
       </c>
       <c r="G16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H16">
-        <v>2.293</v>
+        <v>2.113</v>
       </c>
       <c r="I16">
-        <v>0.061</v>
+        <v>0.079</v>
       </c>
     </row>
   </sheetData>
@@ -1765,142 +3928,142 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>57.011</v>
-      </c>
-      <c r="D2">
-        <v>54.524</v>
-      </c>
-      <c r="E2">
-        <v>49</v>
-      </c>
-      <c r="F2">
-        <v>42</v>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F2" t="s">
+        <v>726</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H2">
-        <v>4.168</v>
+        <v>5.398</v>
       </c>
       <c r="I2">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>59.545</v>
-      </c>
-      <c r="C3">
-        <v>56.013</v>
-      </c>
-      <c r="D3">
-        <v>55.158</v>
-      </c>
-      <c r="E3">
-        <v>47.853</v>
-      </c>
-      <c r="F3">
-        <v>46.5</v>
+      <c r="B3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F3" t="s">
+        <v>727</v>
       </c>
       <c r="G3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H3">
-        <v>2.612</v>
+        <v>3.838</v>
       </c>
       <c r="I3">
-        <v>0.036</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>64.889</v>
-      </c>
-      <c r="C4">
-        <v>55.05</v>
-      </c>
-      <c r="D4">
-        <v>55.793</v>
-      </c>
-      <c r="E4">
-        <v>46.156</v>
-      </c>
-      <c r="F4">
-        <v>46</v>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E4" t="s">
+        <v>714</v>
+      </c>
+      <c r="F4" t="s">
+        <v>728</v>
       </c>
       <c r="G4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H4">
-        <v>4.002</v>
+        <v>3.736</v>
       </c>
       <c r="I4">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59.2</v>
-      </c>
-      <c r="C5">
-        <v>55.123</v>
-      </c>
-      <c r="D5">
-        <v>55.402</v>
-      </c>
-      <c r="E5">
-        <v>46.207</v>
-      </c>
-      <c r="F5">
-        <v>51.333</v>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E5" t="s">
+        <v>715</v>
+      </c>
+      <c r="F5" t="s">
+        <v>729</v>
       </c>
       <c r="G5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H5">
-        <v>2.524</v>
+        <v>4.057</v>
       </c>
       <c r="I5">
-        <v>0.042</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>62.7</v>
-      </c>
-      <c r="C6">
-        <v>53.766</v>
-      </c>
-      <c r="D6">
-        <v>56.859</v>
-      </c>
-      <c r="E6">
-        <v>46.7</v>
-      </c>
-      <c r="F6">
-        <v>49.667</v>
+      <c r="B6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" t="s">
+        <v>716</v>
+      </c>
+      <c r="F6" t="s">
+        <v>730</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H6">
-        <v>3.563</v>
+        <v>3.504</v>
       </c>
       <c r="I6">
         <v>0.008</v>
@@ -1910,290 +4073,290 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>5.818</v>
-      </c>
-      <c r="C7">
-        <v>8.196</v>
-      </c>
-      <c r="D7">
-        <v>8.933</v>
-      </c>
-      <c r="E7">
-        <v>10.919</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" t="s">
+        <v>687</v>
+      </c>
+      <c r="D7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E7" t="s">
+        <v>717</v>
+      </c>
+      <c r="F7" t="s">
+        <v>731</v>
       </c>
       <c r="G7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H7">
-        <v>5.045</v>
+        <v>5.725</v>
       </c>
       <c r="I7">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>6.455</v>
-      </c>
-      <c r="C8">
-        <v>8.670999999999999</v>
-      </c>
-      <c r="D8">
-        <v>8.603999999999999</v>
-      </c>
-      <c r="E8">
-        <v>11.353</v>
-      </c>
-      <c r="F8">
-        <v>11.75</v>
+      <c r="B8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E8" t="s">
+        <v>718</v>
+      </c>
+      <c r="F8" t="s">
+        <v>732</v>
       </c>
       <c r="G8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H8">
-        <v>2.887</v>
+        <v>4.468</v>
       </c>
       <c r="I8">
-        <v>0.023</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>4.778</v>
-      </c>
-      <c r="C9">
-        <v>9.087999999999999</v>
-      </c>
-      <c r="D9">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="E9">
-        <v>11.625</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D9" t="s">
+        <v>704</v>
+      </c>
+      <c r="E9" t="s">
+        <v>719</v>
+      </c>
+      <c r="F9" t="s">
+        <v>733</v>
       </c>
       <c r="G9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H9">
-        <v>4.275</v>
+        <v>3.793</v>
       </c>
       <c r="I9">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.1</v>
-      </c>
-      <c r="C10">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="D10">
-        <v>8.034000000000001</v>
-      </c>
-      <c r="E10">
-        <v>11.621</v>
-      </c>
-      <c r="F10">
-        <v>10.667</v>
+      <c r="B10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" t="s">
+        <v>690</v>
+      </c>
+      <c r="D10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E10" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" t="s">
+        <v>734</v>
       </c>
       <c r="G10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H10">
-        <v>2.692</v>
+        <v>3.714</v>
       </c>
       <c r="I10">
-        <v>0.032</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>8.455</v>
-      </c>
-      <c r="D11">
-        <v>7.628</v>
-      </c>
-      <c r="E11">
-        <v>11.267</v>
-      </c>
-      <c r="F11">
-        <v>11.667</v>
+      <c r="B11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" t="s">
+        <v>691</v>
+      </c>
+      <c r="D11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E11" t="s">
+        <v>721</v>
+      </c>
+      <c r="F11" t="s">
+        <v>735</v>
       </c>
       <c r="G11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H11">
-        <v>3.637</v>
+        <v>3.404</v>
       </c>
       <c r="I11">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.608</v>
-      </c>
-      <c r="C12">
-        <v>0.6</v>
-      </c>
-      <c r="D12">
-        <v>0.594</v>
-      </c>
-      <c r="E12">
-        <v>0.546</v>
-      </c>
-      <c r="F12">
-        <v>0.45</v>
+      <c r="B12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C12" t="s">
+        <v>692</v>
+      </c>
+      <c r="D12" t="s">
+        <v>707</v>
+      </c>
+      <c r="E12" t="s">
+        <v>722</v>
+      </c>
+      <c r="F12" t="s">
+        <v>736</v>
       </c>
       <c r="G12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H12">
-        <v>1.908</v>
+        <v>1.999</v>
       </c>
       <c r="I12">
-        <v>0.11</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.626</v>
-      </c>
-      <c r="C13">
-        <v>0.612</v>
-      </c>
-      <c r="D13">
-        <v>0.6</v>
-      </c>
-      <c r="E13">
-        <v>0.539</v>
-      </c>
-      <c r="F13">
-        <v>0.461</v>
+      <c r="B13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" t="s">
+        <v>693</v>
+      </c>
+      <c r="D13" t="s">
+        <v>708</v>
+      </c>
+      <c r="E13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F13" t="s">
+        <v>737</v>
       </c>
       <c r="G13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H13">
-        <v>2.607</v>
+        <v>2.719</v>
       </c>
       <c r="I13">
-        <v>0.037</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.632</v>
-      </c>
-      <c r="C14">
-        <v>0.606</v>
-      </c>
-      <c r="D14">
-        <v>0.603</v>
-      </c>
-      <c r="E14">
-        <v>0.574</v>
-      </c>
-      <c r="F14">
-        <v>0.47</v>
+      <c r="B14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>694</v>
+      </c>
+      <c r="D14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E14" t="s">
+        <v>723</v>
+      </c>
+      <c r="F14" t="s">
+        <v>738</v>
       </c>
       <c r="G14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H14">
-        <v>0.9350000000000001</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I14">
-        <v>0.444</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.637</v>
-      </c>
-      <c r="C15">
-        <v>0.619</v>
-      </c>
-      <c r="D15">
-        <v>0.628</v>
-      </c>
-      <c r="E15">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.478</v>
+      <c r="B15" t="s">
+        <v>680</v>
+      </c>
+      <c r="C15" t="s">
+        <v>695</v>
+      </c>
+      <c r="D15" t="s">
+        <v>710</v>
+      </c>
+      <c r="E15" t="s">
+        <v>724</v>
+      </c>
+      <c r="F15" t="s">
+        <v>739</v>
       </c>
       <c r="G15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H15">
-        <v>1.868</v>
+        <v>1.738</v>
       </c>
       <c r="I15">
-        <v>0.117</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.617</v>
-      </c>
-      <c r="D16">
-        <v>0.644</v>
-      </c>
-      <c r="E16">
-        <v>0.587</v>
-      </c>
-      <c r="F16">
-        <v>0.475</v>
+      <c r="B16" t="s">
+        <v>681</v>
+      </c>
+      <c r="C16" t="s">
+        <v>696</v>
+      </c>
+      <c r="D16" t="s">
+        <v>711</v>
+      </c>
+      <c r="E16" t="s">
+        <v>725</v>
+      </c>
+      <c r="F16" t="s">
+        <v>739</v>
       </c>
       <c r="G16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H16">
-        <v>1.962</v>
+        <v>2.134</v>
       </c>
       <c r="I16">
-        <v>0.102</v>
+        <v>0.077</v>
       </c>
     </row>
   </sheetData>
@@ -2236,20 +4399,20 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>60.054</v>
-      </c>
-      <c r="C2">
-        <v>52.424</v>
-      </c>
-      <c r="D2">
-        <v>47.917</v>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F2">
-        <v>11.65</v>
+        <v>12.26</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2259,20 +4422,20 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>59.195</v>
-      </c>
-      <c r="C3">
-        <v>52.939</v>
-      </c>
-      <c r="D3">
-        <v>45.407</v>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F3">
-        <v>10.803</v>
+        <v>8.391999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2282,20 +4445,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>59.631</v>
-      </c>
-      <c r="C4">
-        <v>51.624</v>
-      </c>
-      <c r="D4">
-        <v>47.826</v>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F4">
-        <v>9.412000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2305,43 +4468,43 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>58.512</v>
-      </c>
-      <c r="C5">
-        <v>51.209</v>
-      </c>
-      <c r="D5">
-        <v>52.222</v>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F5">
-        <v>5.693</v>
+        <v>7.117</v>
       </c>
       <c r="G5">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>58.902</v>
-      </c>
-      <c r="C6">
-        <v>52.245</v>
-      </c>
-      <c r="D6">
-        <v>44.556</v>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F6">
-        <v>9.342000000000001</v>
+        <v>12.631</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2351,20 +4514,20 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.323</v>
-      </c>
-      <c r="C7">
-        <v>9.583</v>
-      </c>
-      <c r="D7">
-        <v>11.417</v>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F7">
-        <v>10.054</v>
+        <v>10.694</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2374,43 +4537,43 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.529</v>
-      </c>
-      <c r="C8">
-        <v>9.33</v>
-      </c>
-      <c r="D8">
-        <v>12.222</v>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F8">
-        <v>9.176</v>
+        <v>6.169</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.071</v>
-      </c>
-      <c r="C9">
-        <v>9.962999999999999</v>
-      </c>
-      <c r="D9">
-        <v>10.652</v>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F9">
-        <v>8.561999999999999</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2420,43 +4583,43 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.561</v>
-      </c>
-      <c r="C10">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.944000000000001</v>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
       </c>
       <c r="E10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F10">
-        <v>3.854</v>
+        <v>5.519</v>
       </c>
       <c r="G10">
-        <v>0.023</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.841</v>
-      </c>
-      <c r="C11">
-        <v>9.122</v>
-      </c>
-      <c r="D11">
-        <v>12.444</v>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F11">
-        <v>10.815</v>
+        <v>13.199</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2466,20 +4629,20 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.623</v>
-      </c>
-      <c r="C12">
-        <v>0.569</v>
-      </c>
-      <c r="D12">
-        <v>0.547</v>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
       </c>
       <c r="E12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F12">
-        <v>4.824</v>
+        <v>4.785</v>
       </c>
       <c r="G12">
         <v>0.008999999999999999</v>
@@ -2489,92 +4652,92 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.627</v>
-      </c>
-      <c r="C13">
-        <v>0.577</v>
-      </c>
-      <c r="D13">
-        <v>0.555</v>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
       </c>
       <c r="E13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F13">
-        <v>4.118</v>
+        <v>4.233</v>
       </c>
       <c r="G13">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.627</v>
-      </c>
-      <c r="C14">
-        <v>0.582</v>
-      </c>
-      <c r="D14">
-        <v>0.58</v>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
       </c>
       <c r="E14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F14">
-        <v>2.418</v>
+        <v>2.495</v>
       </c>
       <c r="G14">
-        <v>0.092</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.647</v>
-      </c>
-      <c r="C15">
-        <v>0.595</v>
-      </c>
-      <c r="D15">
-        <v>0.57</v>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
       </c>
       <c r="E15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F15">
-        <v>3.739</v>
+        <v>3.712</v>
       </c>
       <c r="G15">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.655</v>
-      </c>
-      <c r="C16">
-        <v>0.605</v>
-      </c>
-      <c r="D16">
-        <v>0.587</v>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
       </c>
       <c r="E16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F16">
-        <v>3.07</v>
+        <v>3.169</v>
       </c>
       <c r="G16">
-        <v>0.049</v>
+        <v>0.043</v>
       </c>
     </row>
   </sheetData>
@@ -2620,23 +4783,23 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>61.314</v>
-      </c>
-      <c r="C2">
-        <v>53.055</v>
-      </c>
-      <c r="D2">
-        <v>48.909</v>
-      </c>
-      <c r="E2">
-        <v>56</v>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>7.944</v>
+        <v>9.555999999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2646,23 +4809,23 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>61.338</v>
-      </c>
-      <c r="C3">
-        <v>52.438</v>
-      </c>
-      <c r="D3">
-        <v>48.909</v>
-      </c>
-      <c r="E3">
-        <v>46</v>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>7.644</v>
+        <v>7.33</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2672,72 +4835,75 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>61.048</v>
-      </c>
-      <c r="C4">
-        <v>52.194</v>
-      </c>
-      <c r="D4">
-        <v>49.207</v>
-      </c>
-      <c r="E4">
-        <v>52</v>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>6.244</v>
+        <v>6.058</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59.968</v>
-      </c>
-      <c r="C5">
-        <v>51.23</v>
-      </c>
-      <c r="D5">
-        <v>53.72</v>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>7.107</v>
+        <v>7.081</v>
       </c>
       <c r="H5">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>60.113</v>
-      </c>
-      <c r="C6">
-        <v>53.072</v>
-      </c>
-      <c r="D6">
-        <v>45.833</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>7.149</v>
+        <v>9.721</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2747,23 +4913,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.9</v>
-      </c>
-      <c r="C7">
-        <v>9.331</v>
-      </c>
-      <c r="D7">
-        <v>11.394</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>7.792</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2773,49 +4939,49 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>6.8</v>
-      </c>
-      <c r="C8">
-        <v>9.492000000000001</v>
-      </c>
-      <c r="D8">
-        <v>11.212</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>6.577</v>
+        <v>6.015</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.629</v>
-      </c>
-      <c r="C9">
-        <v>9.757999999999999</v>
-      </c>
-      <c r="D9">
-        <v>10.207</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>5.509</v>
+        <v>5.293</v>
       </c>
       <c r="H9">
         <v>0.001</v>
@@ -2825,46 +4991,49 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.143</v>
-      </c>
-      <c r="C10">
-        <v>9.705</v>
-      </c>
-      <c r="D10">
-        <v>8.56</v>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>4.96</v>
+        <v>5.783</v>
       </c>
       <c r="H10">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.484</v>
-      </c>
-      <c r="C11">
-        <v>8.73</v>
-      </c>
-      <c r="D11">
-        <v>12.042</v>
-      </c>
-      <c r="E11">
-        <v>19</v>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>9.063000000000001</v>
+        <v>10.452</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2874,127 +5043,130 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.615</v>
-      </c>
-      <c r="C12">
-        <v>0.578</v>
-      </c>
-      <c r="D12">
-        <v>0.574</v>
-      </c>
-      <c r="E12">
-        <v>0.461</v>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>1.383</v>
+        <v>1.324</v>
       </c>
       <c r="H12">
-        <v>0.248</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.623</v>
-      </c>
-      <c r="C13">
-        <v>0.584</v>
-      </c>
-      <c r="D13">
-        <v>0.578</v>
-      </c>
-      <c r="E13">
-        <v>0.486</v>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>1.44</v>
+        <v>1.424</v>
       </c>
       <c r="H13">
-        <v>0.232</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.626</v>
-      </c>
-      <c r="C14">
-        <v>0.583</v>
-      </c>
-      <c r="D14">
-        <v>0.612</v>
-      </c>
-      <c r="E14">
-        <v>0.601</v>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>1.203</v>
+        <v>1.251</v>
       </c>
       <c r="H14">
-        <v>0.31</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.648</v>
-      </c>
-      <c r="C15">
-        <v>0.596</v>
-      </c>
-      <c r="D15">
-        <v>0.611</v>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>2.488</v>
+        <v>1.81</v>
       </c>
       <c r="H15">
-        <v>0.08599999999999999</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.662</v>
-      </c>
-      <c r="C16">
-        <v>0.606</v>
-      </c>
-      <c r="D16">
-        <v>0.613</v>
-      </c>
-      <c r="E16">
-        <v>0.524</v>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>1.989</v>
+        <v>2.169</v>
       </c>
       <c r="H16">
-        <v>0.117</v>
+        <v>0.092</v>
       </c>
     </row>
   </sheetData>
@@ -3040,23 +5212,23 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>64.5</v>
-      </c>
-      <c r="C2">
-        <v>53.072</v>
-      </c>
-      <c r="D2">
-        <v>50.311</v>
-      </c>
-      <c r="E2">
-        <v>57</v>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>10.577</v>
+        <v>10.684</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3066,23 +5238,23 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>52.326</v>
-      </c>
-      <c r="D3">
-        <v>51.762</v>
-      </c>
-      <c r="E3">
-        <v>50.5</v>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>7.267</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3092,23 +5264,23 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>63.391</v>
-      </c>
-      <c r="C4">
-        <v>52.346</v>
-      </c>
-      <c r="D4">
-        <v>51.026</v>
-      </c>
-      <c r="E4">
-        <v>45.5</v>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>7.725</v>
+        <v>9.058</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3118,75 +5290,75 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>62.174</v>
-      </c>
-      <c r="C5">
-        <v>51.698</v>
-      </c>
-      <c r="D5">
-        <v>52.75</v>
-      </c>
-      <c r="E5">
-        <v>51.333</v>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>5.754</v>
+        <v>9.576000000000001</v>
       </c>
       <c r="H5">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>60.489</v>
-      </c>
-      <c r="C6">
-        <v>53.761</v>
-      </c>
-      <c r="D6">
-        <v>48.844</v>
-      </c>
-      <c r="E6">
-        <v>44.25</v>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>4.908</v>
+        <v>8.891</v>
       </c>
       <c r="H6">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.021</v>
-      </c>
-      <c r="C7">
-        <v>9.407999999999999</v>
-      </c>
-      <c r="D7">
-        <v>10.444</v>
-      </c>
-      <c r="E7">
-        <v>7.75</v>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>216</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>8.407</v>
+        <v>8.552</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3196,23 +5368,23 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>6.167</v>
-      </c>
-      <c r="C8">
-        <v>9.606999999999999</v>
-      </c>
-      <c r="D8">
-        <v>10.095</v>
-      </c>
-      <c r="E8">
-        <v>10.25</v>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>6.235</v>
+        <v>8.231999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3222,23 +5394,23 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>5.804</v>
-      </c>
-      <c r="C9">
-        <v>9.756</v>
-      </c>
-      <c r="D9">
-        <v>9.41</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>7.488</v>
+        <v>8.34</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3248,49 +5420,49 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>6.283</v>
-      </c>
-      <c r="C10">
-        <v>9.673999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.811999999999999</v>
-      </c>
-      <c r="E10">
-        <v>9.667</v>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>4.805</v>
+        <v>8.212999999999999</v>
       </c>
       <c r="H10">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.133</v>
-      </c>
-      <c r="C11">
-        <v>8.675000000000001</v>
-      </c>
-      <c r="D11">
-        <v>10.375</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>6.383</v>
+        <v>9.486000000000001</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3300,130 +5472,130 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.618</v>
-      </c>
-      <c r="C12">
-        <v>0.58</v>
-      </c>
-      <c r="D12">
-        <v>0.584</v>
-      </c>
-      <c r="E12">
-        <v>0.513</v>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>1.193</v>
+        <v>1.228</v>
       </c>
       <c r="H12">
-        <v>0.313</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.634</v>
-      </c>
-      <c r="C13">
-        <v>0.583</v>
-      </c>
-      <c r="D13">
-        <v>0.592</v>
-      </c>
-      <c r="E13">
-        <v>0.501</v>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>2.067</v>
+        <v>2.278</v>
       </c>
       <c r="H13">
-        <v>0.105</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.629</v>
-      </c>
-      <c r="C14">
-        <v>0.584</v>
-      </c>
-      <c r="D14">
-        <v>0.622</v>
-      </c>
-      <c r="E14">
-        <v>0.528</v>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>1.702</v>
+        <v>1.798</v>
       </c>
       <c r="H14">
-        <v>0.168</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.654</v>
-      </c>
-      <c r="C15">
-        <v>0.606</v>
-      </c>
-      <c r="D15">
-        <v>0.596</v>
-      </c>
-      <c r="E15">
-        <v>0.521</v>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>224</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>1.776</v>
+        <v>1.925</v>
       </c>
       <c r="H15">
-        <v>0.153</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.676</v>
-      </c>
-      <c r="C16">
-        <v>0.611</v>
-      </c>
-      <c r="D16">
-        <v>0.612</v>
-      </c>
-      <c r="E16">
-        <v>0.513</v>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>2.835</v>
+        <v>3.412</v>
       </c>
       <c r="H16">
-        <v>0.039</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -3469,127 +5641,127 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>57.228</v>
-      </c>
-      <c r="C2">
-        <v>54.667</v>
-      </c>
-      <c r="D2">
-        <v>48.552</v>
-      </c>
-      <c r="E2">
-        <v>47</v>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>271</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>2.96</v>
+        <v>5.158</v>
       </c>
       <c r="H2">
-        <v>0.033</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>56.293</v>
-      </c>
-      <c r="C3">
-        <v>55.412</v>
-      </c>
-      <c r="D3">
-        <v>46.581</v>
-      </c>
-      <c r="E3">
-        <v>43.5</v>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>272</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>3.956</v>
+        <v>2.607</v>
       </c>
       <c r="H3">
-        <v>0.008999999999999999</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>57.32</v>
-      </c>
-      <c r="C4">
-        <v>53.991</v>
-      </c>
-      <c r="D4">
-        <v>47.793</v>
-      </c>
-      <c r="E4">
-        <v>58</v>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>273</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>2.795</v>
+        <v>1.574</v>
       </c>
       <c r="H4">
-        <v>0.041</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>55.054</v>
-      </c>
-      <c r="C5">
-        <v>55.118</v>
-      </c>
-      <c r="D5">
-        <v>47.12</v>
-      </c>
-      <c r="E5">
-        <v>56</v>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>2.004</v>
+        <v>2.659</v>
       </c>
       <c r="H5">
-        <v>0.115</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>56.877</v>
-      </c>
-      <c r="C6">
-        <v>54.814</v>
-      </c>
-      <c r="D6">
-        <v>43.864</v>
-      </c>
-      <c r="E6">
-        <v>44</v>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>4.738</v>
+        <v>4.871</v>
       </c>
       <c r="H6">
         <v>0.003</v>
@@ -3599,179 +5771,179 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.087</v>
-      </c>
-      <c r="C7">
-        <v>8.936999999999999</v>
-      </c>
-      <c r="D7">
-        <v>11.379</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>276</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>3.494</v>
+        <v>5.979</v>
       </c>
       <c r="H7">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.305</v>
-      </c>
-      <c r="C8">
-        <v>8.737</v>
-      </c>
-      <c r="D8">
-        <v>11.419</v>
-      </c>
-      <c r="E8">
-        <v>13.5</v>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" t="s">
+        <v>157</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>3.292</v>
+        <v>1.891</v>
       </c>
       <c r="H8">
-        <v>0.021</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.667</v>
-      </c>
-      <c r="C9">
-        <v>9.260999999999999</v>
-      </c>
-      <c r="D9">
-        <v>10.931</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>277</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>3.043</v>
+        <v>1.421</v>
       </c>
       <c r="H9">
-        <v>0.03</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.486000000000001</v>
-      </c>
-      <c r="C10">
-        <v>8.509</v>
-      </c>
-      <c r="D10">
-        <v>11.16</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>277</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>2.006</v>
+        <v>2.463</v>
       </c>
       <c r="H10">
-        <v>0.114</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.233</v>
-      </c>
-      <c r="C11">
-        <v>8.430999999999999</v>
-      </c>
-      <c r="D11">
-        <v>12.773</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s">
+        <v>278</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>6.852</v>
+        <v>5.805</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.617</v>
-      </c>
-      <c r="C12">
-        <v>0.577</v>
-      </c>
-      <c r="D12">
-        <v>0.534</v>
-      </c>
-      <c r="E12">
-        <v>0.591</v>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" t="s">
+        <v>279</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>2.788</v>
+        <v>2.633</v>
       </c>
       <c r="H12">
-        <v>0.041</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.633</v>
-      </c>
-      <c r="C13">
-        <v>0.58</v>
-      </c>
-      <c r="D13">
-        <v>0.534</v>
-      </c>
-      <c r="E13">
-        <v>0.6899999999999999</v>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" t="s">
+        <v>280</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>4.572</v>
+        <v>4.598</v>
       </c>
       <c r="H13">
         <v>0.004</v>
@@ -3781,78 +5953,78 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.626</v>
-      </c>
-      <c r="C14">
-        <v>0.594</v>
-      </c>
-      <c r="D14">
-        <v>0.547</v>
-      </c>
-      <c r="E14">
-        <v>0.675</v>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" t="s">
+        <v>281</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>2.107</v>
+        <v>2.012</v>
       </c>
       <c r="H14">
-        <v>0.1</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.644</v>
-      </c>
-      <c r="C15">
-        <v>0.603</v>
-      </c>
-      <c r="D15">
-        <v>0.572</v>
-      </c>
-      <c r="E15">
-        <v>0.5679999999999999</v>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>1.87</v>
+        <v>1.774</v>
       </c>
       <c r="H15">
-        <v>0.136</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.655</v>
-      </c>
-      <c r="C16">
-        <v>0.613</v>
-      </c>
-      <c r="D16">
-        <v>0.575</v>
-      </c>
-      <c r="E16">
-        <v>0.641</v>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>283</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>1.973</v>
+        <v>1.863</v>
       </c>
       <c r="H16">
-        <v>0.119</v>
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
@@ -3898,257 +6070,257 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>59.403</v>
-      </c>
-      <c r="C2">
-        <v>54.429</v>
-      </c>
-      <c r="D2">
-        <v>50.571</v>
-      </c>
-      <c r="E2">
-        <v>45.6</v>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" t="s">
+        <v>329</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>4.186</v>
+        <v>6.853</v>
       </c>
       <c r="H2">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>57.357</v>
-      </c>
-      <c r="C3">
-        <v>55.902</v>
-      </c>
-      <c r="D3">
-        <v>47.667</v>
-      </c>
-      <c r="E3">
-        <v>46.2</v>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>4.952</v>
+        <v>3.575</v>
       </c>
       <c r="H3">
-        <v>0.002</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>57.868</v>
-      </c>
-      <c r="C4">
-        <v>55.619</v>
-      </c>
-      <c r="D4">
-        <v>46.439</v>
-      </c>
-      <c r="E4">
-        <v>50.5</v>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" t="s">
+        <v>331</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>5.173</v>
+        <v>3.98</v>
       </c>
       <c r="H4">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>55.962</v>
-      </c>
-      <c r="C5">
-        <v>55.149</v>
-      </c>
-      <c r="D5">
-        <v>48.606</v>
-      </c>
-      <c r="E5">
-        <v>46</v>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" t="s">
+        <v>332</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>2.253</v>
+        <v>5.328</v>
       </c>
       <c r="H5">
-        <v>0.083</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>57.827</v>
-      </c>
-      <c r="C6">
-        <v>55.438</v>
-      </c>
-      <c r="D6">
-        <v>45.9</v>
-      </c>
-      <c r="E6">
-        <v>39.75</v>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" t="s">
+        <v>333</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>6.012</v>
+        <v>8.063000000000001</v>
       </c>
       <c r="H6">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.419</v>
-      </c>
-      <c r="C7">
-        <v>8.986000000000001</v>
-      </c>
-      <c r="D7">
-        <v>10.548</v>
-      </c>
-      <c r="E7">
-        <v>11.8</v>
+      <c r="B7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>4.275</v>
+        <v>7.415</v>
       </c>
       <c r="H7">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.179</v>
-      </c>
-      <c r="C8">
-        <v>8.423</v>
-      </c>
-      <c r="D8">
-        <v>11.156</v>
-      </c>
-      <c r="E8">
-        <v>12.4</v>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>4.277</v>
+        <v>2.637</v>
       </c>
       <c r="H8">
-        <v>0.006</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.642</v>
-      </c>
-      <c r="C9">
-        <v>8.516999999999999</v>
-      </c>
-      <c r="D9">
-        <v>11.585</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>4.749</v>
+        <v>3.72</v>
       </c>
       <c r="H9">
-        <v>0.003</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.481</v>
-      </c>
-      <c r="C10">
-        <v>8.305999999999999</v>
-      </c>
-      <c r="D10">
-        <v>10.636</v>
-      </c>
-      <c r="E10">
-        <v>12.75</v>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" t="s">
+        <v>336</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>2.473</v>
+        <v>5.335</v>
       </c>
       <c r="H10">
-        <v>0.063</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>8.08</v>
-      </c>
-      <c r="D11">
-        <v>11.7</v>
-      </c>
-      <c r="E11">
-        <v>14.75</v>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" t="s">
+        <v>337</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>8.012</v>
+        <v>9.004</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4158,130 +6330,130 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.632</v>
-      </c>
-      <c r="C12">
-        <v>0.579</v>
-      </c>
-      <c r="D12">
-        <v>0.556</v>
-      </c>
-      <c r="E12">
-        <v>0.506</v>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" t="s">
+        <v>338</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>3.278</v>
+        <v>3.378</v>
       </c>
       <c r="H12">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.634</v>
-      </c>
-      <c r="C13">
-        <v>0.595</v>
-      </c>
-      <c r="D13">
-        <v>0.544</v>
-      </c>
-      <c r="E13">
-        <v>0.541</v>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" t="s">
+        <v>339</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>3.565</v>
+        <v>3.571</v>
       </c>
       <c r="H13">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.624</v>
-      </c>
-      <c r="C14">
-        <v>0.598</v>
-      </c>
-      <c r="D14">
-        <v>0.578</v>
-      </c>
-      <c r="E14">
-        <v>0.513</v>
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" t="s">
+        <v>340</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>1.198</v>
+        <v>1.243</v>
       </c>
       <c r="H14">
-        <v>0.311</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.642</v>
-      </c>
-      <c r="C15">
-        <v>0.613</v>
-      </c>
-      <c r="D15">
-        <v>0.584</v>
-      </c>
-      <c r="E15">
-        <v>0.494</v>
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" t="s">
+        <v>341</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>1.898</v>
+        <v>1.943</v>
       </c>
       <c r="H15">
-        <v>0.131</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.649</v>
-      </c>
-      <c r="C16">
-        <v>0.622</v>
-      </c>
-      <c r="D16">
-        <v>0.606</v>
-      </c>
-      <c r="E16">
-        <v>0.498</v>
+      <c r="B16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" t="s">
+        <v>342</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>1.536</v>
+        <v>1.743</v>
       </c>
       <c r="H16">
-        <v>0.206</v>
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
@@ -4327,390 +6499,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>61.326</v>
-      </c>
-      <c r="C2">
-        <v>54.556</v>
-      </c>
-      <c r="D2">
-        <v>52.359</v>
-      </c>
-      <c r="E2">
-        <v>45.667</v>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" t="s">
+        <v>388</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>5.007</v>
+        <v>7.054</v>
       </c>
       <c r="H2">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>59.868</v>
-      </c>
-      <c r="C3">
-        <v>54.933</v>
-      </c>
-      <c r="D3">
-        <v>51.381</v>
-      </c>
-      <c r="E3">
-        <v>46.111</v>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>389</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>3.661</v>
+        <v>3.107</v>
       </c>
       <c r="H3">
-        <v>0.013</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>60.486</v>
-      </c>
-      <c r="C4">
-        <v>55.158</v>
-      </c>
-      <c r="D4">
-        <v>49.898</v>
-      </c>
-      <c r="E4">
-        <v>48.375</v>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>390</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>4.188</v>
+        <v>3.152</v>
       </c>
       <c r="H4">
-        <v>0.007</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>56.811</v>
-      </c>
-      <c r="C5">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>50.962</v>
-      </c>
-      <c r="E5">
-        <v>49.667</v>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" t="s">
+        <v>391</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>1.422</v>
+        <v>4.195</v>
       </c>
       <c r="H5">
-        <v>0.237</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>59</v>
-      </c>
-      <c r="C6">
-        <v>54.915</v>
-      </c>
-      <c r="D6">
-        <v>50.938</v>
-      </c>
-      <c r="E6">
-        <v>43.286</v>
+      <c r="B6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" t="s">
+        <v>392</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>3.472</v>
+        <v>5.735</v>
       </c>
       <c r="H6">
-        <v>0.017</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.721</v>
-      </c>
-      <c r="C7">
-        <v>8.895</v>
-      </c>
-      <c r="D7">
-        <v>9.952999999999999</v>
-      </c>
-      <c r="E7">
-        <v>12.333</v>
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" t="s">
+        <v>393</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>5.652</v>
+        <v>7.892</v>
       </c>
       <c r="H7">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.368</v>
-      </c>
-      <c r="C8">
-        <v>8.747999999999999</v>
-      </c>
-      <c r="D8">
-        <v>9.920999999999999</v>
-      </c>
-      <c r="E8">
-        <v>12.444</v>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>3.285</v>
+        <v>2.483</v>
       </c>
       <c r="H8">
-        <v>0.022</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.886</v>
-      </c>
-      <c r="C9">
-        <v>8.693</v>
-      </c>
-      <c r="D9">
-        <v>10.271</v>
-      </c>
-      <c r="E9">
-        <v>10.875</v>
+      <c r="B9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" t="s">
+        <v>395</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>3.353</v>
+        <v>2.623</v>
       </c>
       <c r="H9">
-        <v>0.02</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.432</v>
-      </c>
-      <c r="C10">
-        <v>8.395</v>
-      </c>
-      <c r="D10">
-        <v>9.66</v>
-      </c>
-      <c r="E10">
-        <v>11.167</v>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" t="s">
+        <v>396</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>1.123</v>
+        <v>3.843</v>
       </c>
       <c r="H10">
-        <v>0.341</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.757</v>
-      </c>
-      <c r="C11">
-        <v>8.047000000000001</v>
-      </c>
-      <c r="D11">
-        <v>9.978999999999999</v>
-      </c>
-      <c r="E11">
-        <v>13.857</v>
+      <c r="B11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" t="s">
+        <v>397</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>5.687</v>
+        <v>6.986</v>
       </c>
       <c r="H11">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.626</v>
-      </c>
-      <c r="C12">
-        <v>0.582</v>
-      </c>
-      <c r="D12">
-        <v>0.587</v>
-      </c>
-      <c r="E12">
-        <v>0.467</v>
+      <c r="B12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" t="s">
+        <v>398</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>3.139</v>
+        <v>3.163</v>
       </c>
       <c r="H12">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.632</v>
-      </c>
-      <c r="C13">
-        <v>0.596</v>
-      </c>
-      <c r="D13">
-        <v>0.581</v>
-      </c>
-      <c r="E13">
-        <v>0.495</v>
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" t="s">
+        <v>399</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>2.486</v>
+        <v>2.587</v>
       </c>
       <c r="H13">
-        <v>0.061</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.637</v>
-      </c>
-      <c r="C14">
-        <v>0.588</v>
-      </c>
-      <c r="D14">
-        <v>0.611</v>
-      </c>
-      <c r="E14">
-        <v>0.508</v>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" t="s">
+        <v>400</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>2.065</v>
+        <v>2.066</v>
       </c>
       <c r="H14">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.644</v>
-      </c>
-      <c r="C15">
-        <v>0.606</v>
-      </c>
-      <c r="D15">
-        <v>0.621</v>
-      </c>
-      <c r="E15">
-        <v>0.496</v>
+      <c r="B15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" t="s">
+        <v>401</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>1.911</v>
+        <v>1.676</v>
       </c>
       <c r="H15">
-        <v>0.129</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.651</v>
-      </c>
-      <c r="C16">
-        <v>0.619</v>
-      </c>
-      <c r="D16">
-        <v>0.633</v>
-      </c>
-      <c r="E16">
-        <v>0.498</v>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" t="s">
+        <v>402</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>2.108</v>
+        <v>2.085</v>
       </c>
       <c r="H16">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
     </row>
   </sheetData>
@@ -4759,26 +6931,26 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>65.09099999999999</v>
-      </c>
-      <c r="C2">
-        <v>55.481</v>
-      </c>
-      <c r="D2">
-        <v>51.939</v>
-      </c>
-      <c r="E2">
-        <v>51.4</v>
-      </c>
-      <c r="F2">
-        <v>36</v>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" t="s">
+        <v>462</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H2">
-        <v>4.575</v>
+        <v>5.066</v>
       </c>
       <c r="I2">
         <v>0.001</v>
@@ -4788,142 +6960,142 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>55.805</v>
-      </c>
-      <c r="D3">
-        <v>51.885</v>
-      </c>
-      <c r="E3">
-        <v>49.733</v>
-      </c>
-      <c r="F3">
-        <v>45</v>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" t="s">
+        <v>463</v>
       </c>
       <c r="G3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H3">
-        <v>2.084</v>
+        <v>2.299</v>
       </c>
       <c r="I3">
-        <v>0.08400000000000001</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>63.095</v>
-      </c>
-      <c r="C4">
-        <v>55.802</v>
-      </c>
-      <c r="D4">
-        <v>51.467</v>
-      </c>
-      <c r="E4">
-        <v>45.154</v>
-      </c>
-      <c r="F4">
-        <v>49</v>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" t="s">
+        <v>464</v>
       </c>
       <c r="G4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H4">
-        <v>3.993</v>
+        <v>3.344</v>
       </c>
       <c r="I4">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>57.364</v>
-      </c>
-      <c r="C5">
-        <v>55.67</v>
-      </c>
-      <c r="D5">
-        <v>51.382</v>
-      </c>
-      <c r="E5">
-        <v>50.1</v>
-      </c>
-      <c r="F5">
-        <v>46</v>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" t="s">
+        <v>465</v>
       </c>
       <c r="G5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H5">
-        <v>1.307</v>
+        <v>3.601</v>
       </c>
       <c r="I5">
-        <v>0.268</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>56.043</v>
-      </c>
-      <c r="C6">
-        <v>55.912</v>
-      </c>
-      <c r="D6">
-        <v>53.2</v>
-      </c>
-      <c r="E6">
-        <v>43.667</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" t="s">
+        <v>466</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H6">
-        <v>2.135</v>
+        <v>3.923</v>
       </c>
       <c r="I6">
-        <v>0.078</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>5.455</v>
-      </c>
-      <c r="C7">
-        <v>8.673999999999999</v>
-      </c>
-      <c r="D7">
-        <v>9.901999999999999</v>
-      </c>
-      <c r="E7">
-        <v>10.2</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
+      <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" t="s">
+        <v>467</v>
       </c>
       <c r="G7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H7">
-        <v>4.754</v>
+        <v>4.979</v>
       </c>
       <c r="I7">
         <v>0.001</v>
@@ -4933,261 +7105,261 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.318</v>
-      </c>
-      <c r="C8">
-        <v>8.496</v>
-      </c>
-      <c r="D8">
-        <v>9.756</v>
-      </c>
-      <c r="E8">
-        <v>10.933</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" t="s">
+        <v>468</v>
       </c>
       <c r="G8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H8">
-        <v>1.81</v>
+        <v>1.855</v>
       </c>
       <c r="I8">
-        <v>0.128</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>5.952</v>
-      </c>
-      <c r="C9">
-        <v>8.566000000000001</v>
-      </c>
-      <c r="D9">
-        <v>9.56</v>
-      </c>
-      <c r="E9">
-        <v>12.615</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" t="s">
+        <v>469</v>
       </c>
       <c r="G9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H9">
-        <v>3.63</v>
+        <v>3.064</v>
       </c>
       <c r="I9">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8.358000000000001</v>
-      </c>
-      <c r="D10">
-        <v>9.471</v>
-      </c>
-      <c r="E10">
-        <v>10.6</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
+      <c r="B10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" t="s">
+        <v>469</v>
       </c>
       <c r="G10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H10">
-        <v>0.897</v>
+        <v>3.166</v>
       </c>
       <c r="I10">
-        <v>0.467</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.304</v>
-      </c>
-      <c r="C11">
-        <v>7.951</v>
-      </c>
-      <c r="D11">
-        <v>8.867000000000001</v>
-      </c>
-      <c r="E11">
-        <v>12.75</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
+      <c r="B11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" t="s">
+        <v>470</v>
       </c>
       <c r="G11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H11">
-        <v>3.12</v>
+        <v>4.667</v>
       </c>
       <c r="I11">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.626</v>
-      </c>
-      <c r="C12">
-        <v>0.586</v>
-      </c>
-      <c r="D12">
-        <v>0.589</v>
-      </c>
-      <c r="E12">
-        <v>0.55</v>
-      </c>
-      <c r="F12">
-        <v>0.242</v>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" t="s">
+        <v>471</v>
       </c>
       <c r="G12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H12">
-        <v>2.057</v>
+        <v>2.345</v>
       </c>
       <c r="I12">
-        <v>0.08699999999999999</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.64</v>
-      </c>
-      <c r="C13">
-        <v>0.597</v>
-      </c>
-      <c r="D13">
-        <v>0.587</v>
-      </c>
-      <c r="E13">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.258</v>
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F13" t="s">
+        <v>472</v>
       </c>
       <c r="G13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H13">
-        <v>2.192</v>
+        <v>2.698</v>
       </c>
       <c r="I13">
-        <v>0.07099999999999999</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.643</v>
-      </c>
-      <c r="C14">
-        <v>0.587</v>
-      </c>
-      <c r="D14">
-        <v>0.61</v>
-      </c>
-      <c r="E14">
-        <v>0.59</v>
-      </c>
-      <c r="F14">
-        <v>0.251</v>
+      <c r="B14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" t="s">
+        <v>445</v>
+      </c>
+      <c r="E14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" t="s">
+        <v>473</v>
       </c>
       <c r="G14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H14">
-        <v>2.113</v>
+        <v>2.716</v>
       </c>
       <c r="I14">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.646</v>
-      </c>
-      <c r="C15">
-        <v>0.611</v>
-      </c>
-      <c r="D15">
-        <v>0.617</v>
-      </c>
-      <c r="E15">
-        <v>0.57</v>
-      </c>
-      <c r="F15">
-        <v>0.335</v>
+      <c r="B15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15" t="s">
+        <v>474</v>
       </c>
       <c r="G15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H15">
-        <v>1.335</v>
+        <v>1.714</v>
       </c>
       <c r="I15">
-        <v>0.258</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.663</v>
-      </c>
-      <c r="C16">
-        <v>0.621</v>
-      </c>
-      <c r="D16">
-        <v>0.631</v>
-      </c>
-      <c r="E16">
-        <v>0.571</v>
-      </c>
-      <c r="F16">
-        <v>0.305</v>
+      <c r="B16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" t="s">
+        <v>475</v>
       </c>
       <c r="G16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H16">
-        <v>1.908</v>
+        <v>2.606</v>
       </c>
       <c r="I16">
-        <v>0.111</v>
+        <v>0.036</v>
       </c>
     </row>
   </sheetData>
@@ -5233,361 +7405,361 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>56.299</v>
-      </c>
-      <c r="C2">
-        <v>56.744</v>
-      </c>
-      <c r="D2">
-        <v>49.226</v>
-      </c>
-      <c r="E2">
-        <v>45.25</v>
+      <c r="B2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" t="s">
+        <v>521</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>4.409</v>
+        <v>5.047</v>
       </c>
       <c r="H2">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>56.763</v>
-      </c>
-      <c r="C3">
-        <v>55.915</v>
-      </c>
-      <c r="D3">
-        <v>48.633</v>
-      </c>
-      <c r="E3">
-        <v>47.5</v>
+      <c r="B3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" t="s">
+        <v>522</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>3.751</v>
+        <v>3.643</v>
       </c>
       <c r="H3">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>57.038</v>
-      </c>
-      <c r="C4">
-        <v>54.826</v>
-      </c>
-      <c r="D4">
-        <v>50.333</v>
-      </c>
-      <c r="E4">
-        <v>47.667</v>
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" t="s">
+        <v>523</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>1.807</v>
+        <v>2.384</v>
       </c>
       <c r="H4">
-        <v>0.147</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>53.911</v>
-      </c>
-      <c r="C5">
-        <v>57.229</v>
-      </c>
-      <c r="D5">
-        <v>48.065</v>
-      </c>
-      <c r="E5">
-        <v>44</v>
+      <c r="B5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" t="s">
+        <v>524</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>4.451</v>
+        <v>2.679</v>
       </c>
       <c r="H5">
-        <v>0.005</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>57.731</v>
-      </c>
-      <c r="C6">
-        <v>55.17</v>
-      </c>
-      <c r="D6">
-        <v>48.953</v>
-      </c>
-      <c r="E6">
-        <v>42.667</v>
+      <c r="B6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" t="s">
+        <v>525</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>3.592</v>
+        <v>2.231</v>
       </c>
       <c r="H6">
-        <v>0.015</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.327999999999999</v>
-      </c>
-      <c r="C7">
-        <v>8.24</v>
-      </c>
-      <c r="D7">
-        <v>11.019</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
+      <c r="B7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" t="s">
+        <v>526</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>5.202</v>
+        <v>5.604</v>
       </c>
       <c r="H7">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.983</v>
-      </c>
-      <c r="C8">
-        <v>8.59</v>
-      </c>
-      <c r="D8">
-        <v>10.959</v>
-      </c>
-      <c r="E8">
-        <v>11.25</v>
+      <c r="B8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" t="s">
+        <v>527</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>3.543</v>
+        <v>3.229</v>
       </c>
       <c r="H8">
-        <v>0.015</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.774</v>
-      </c>
-      <c r="C9">
-        <v>8.826000000000001</v>
-      </c>
-      <c r="D9">
-        <v>10.333</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E9" t="s">
+        <v>528</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>1.976</v>
+        <v>2.321</v>
       </c>
       <c r="H9">
-        <v>0.119</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.106999999999999</v>
-      </c>
-      <c r="C10">
-        <v>7.619</v>
-      </c>
-      <c r="D10">
-        <v>10.891</v>
-      </c>
-      <c r="E10">
-        <v>12.333</v>
+      <c r="B10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E10" t="s">
+        <v>529</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>4.779</v>
+        <v>2.683</v>
       </c>
       <c r="H10">
-        <v>0.003</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.981</v>
-      </c>
-      <c r="C11">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="D11">
-        <v>10.628</v>
-      </c>
-      <c r="E11">
-        <v>12.667</v>
+      <c r="B11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E11" t="s">
+        <v>530</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>4.786</v>
+        <v>2.674</v>
       </c>
       <c r="H11">
-        <v>0.003</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.608</v>
-      </c>
-      <c r="C12">
-        <v>0.599</v>
-      </c>
-      <c r="D12">
-        <v>0.537</v>
-      </c>
-      <c r="E12">
-        <v>0.526</v>
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" t="s">
+        <v>516</v>
+      </c>
+      <c r="E12" t="s">
+        <v>531</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>3.059</v>
+        <v>2.928</v>
       </c>
       <c r="H12">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.617</v>
-      </c>
-      <c r="C13">
-        <v>0.61</v>
-      </c>
-      <c r="D13">
-        <v>0.53</v>
-      </c>
-      <c r="E13">
-        <v>0.547</v>
+      <c r="B13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" t="s">
+        <v>517</v>
+      </c>
+      <c r="E13" t="s">
+        <v>532</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>4.429</v>
+        <v>4.152</v>
       </c>
       <c r="H13">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.615</v>
-      </c>
-      <c r="C14">
-        <v>0.611</v>
-      </c>
-      <c r="D14">
-        <v>0.556</v>
-      </c>
-      <c r="E14">
-        <v>0.509</v>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" t="s">
+        <v>533</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>2.099</v>
+        <v>1.971</v>
       </c>
       <c r="H14">
-        <v>0.101</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.632</v>
-      </c>
-      <c r="C15">
-        <v>0.628</v>
-      </c>
-      <c r="D15">
-        <v>0.571</v>
-      </c>
-      <c r="E15">
-        <v>0.415</v>
+      <c r="B15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E15" t="s">
+        <v>534</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>3.729</v>
+        <v>3.74</v>
       </c>
       <c r="H15">
         <v>0.012</v>
@@ -5597,26 +7769,26 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.645</v>
-      </c>
-      <c r="C16">
-        <v>0.636</v>
-      </c>
-      <c r="D16">
-        <v>0.585</v>
-      </c>
-      <c r="E16">
-        <v>0.451</v>
+      <c r="B16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" t="s">
+        <v>535</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>2.813</v>
+        <v>2.904</v>
       </c>
       <c r="H16">
-        <v>0.041</v>
+        <v>0.035</v>
       </c>
     </row>
   </sheetData>
